--- a/2022-05-16评分.xlsx
+++ b/2022-05-16评分.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b433d91557f6a2e/A_Quant/蓝楹会量化组/Work/Quant_Stock_2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_D9367ED906C12ACA54170B6F139CF643502DF299" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9449ED46-0D97-354A-B685-C09B38C5C21C}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1270,8 +1276,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1334,6 +1340,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1380,7 +1394,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1412,9 +1426,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1446,6 +1478,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1621,14 +1671,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
+    <col min="7" max="7" width="28.5" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1665,28 +1727,28 @@
         <v>213</v>
       </c>
       <c r="C2">
-        <v>56.58166119941223</v>
+        <v>56.581661199412231</v>
       </c>
       <c r="D2">
-        <v>0.01183010673279315</v>
+        <v>1.1830106732793151E-2</v>
       </c>
       <c r="E2">
-        <v>14.84796098270965</v>
+        <v>14.847960982709649</v>
       </c>
       <c r="F2">
-        <v>14.7834493333043</v>
+        <v>14.783449333304301</v>
       </c>
       <c r="G2">
-        <v>2.779666625990986</v>
+        <v>2.7796666259909859</v>
       </c>
       <c r="H2">
-        <v>4.018545240116945</v>
+        <v>4.0185452401169446</v>
       </c>
       <c r="J2">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1694,13 +1756,13 @@
         <v>214</v>
       </c>
       <c r="C3">
-        <v>34.66668545061446</v>
+        <v>34.666685450614459</v>
       </c>
       <c r="D3">
-        <v>0.007248118564557035</v>
+        <v>7.2481185645570352E-3</v>
       </c>
       <c r="E3">
-        <v>14.38798149102898</v>
+        <v>14.387981491028979</v>
       </c>
       <c r="F3">
         <v>14.56525758374789</v>
@@ -1712,10 +1774,10 @@
         <v>4.21020737992042</v>
       </c>
       <c r="J3">
-        <v>0.8912204869461486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>0.89122048694614864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1723,10 +1785,10 @@
         <v>215</v>
       </c>
       <c r="C4">
-        <v>32.73177709431537</v>
+        <v>32.731777094315369</v>
       </c>
       <c r="D4">
-        <v>0.006843567480549107</v>
+        <v>6.8435674805491066E-3</v>
       </c>
       <c r="E4">
         <v>14.76983263238863</v>
@@ -1738,13 +1800,13 @@
         <v>12.57574795357649</v>
       </c>
       <c r="H4">
-        <v>4.25190245043388</v>
+        <v>4.2519024504338798</v>
       </c>
       <c r="J4">
-        <v>0.917765198761786</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>0.91776519876178597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1755,25 +1817,25 @@
         <v>30.91471349319341</v>
       </c>
       <c r="D5">
-        <v>0.006463655405048405</v>
+        <v>6.463655405048405E-3</v>
       </c>
       <c r="E5">
         <v>14.64832523149868</v>
       </c>
       <c r="F5">
-        <v>14.86275835795795</v>
+        <v>14.862758357957951</v>
       </c>
       <c r="G5">
-        <v>5.084132126026705</v>
+        <v>5.0841321260267049</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="J5">
-        <v>0.9678230092087521</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>0.96782300920875208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1781,28 +1843,28 @@
         <v>217</v>
       </c>
       <c r="C6">
-        <v>29.7880661175622</v>
+        <v>29.788066117562199</v>
       </c>
       <c r="D6">
-        <v>0.006228095712713372</v>
+        <v>6.2280957127133722E-3</v>
       </c>
       <c r="E6">
-        <v>14.85999042605686</v>
+        <v>14.859990426056861</v>
       </c>
       <c r="F6">
-        <v>14.9619580763598</v>
+        <v>14.961958076359799</v>
       </c>
       <c r="G6">
-        <v>9.636977354315508</v>
+        <v>9.6369773543155084</v>
       </c>
       <c r="H6">
-        <v>4.216216639683902</v>
+        <v>4.2162166396839016</v>
       </c>
       <c r="J6">
-        <v>0.9729140472029791</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>0.97291404720297914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1813,7 +1875,7 @@
         <v>28.42203760653388</v>
       </c>
       <c r="D7">
-        <v>0.005942486157551154</v>
+        <v>5.9424861575511538E-3</v>
       </c>
       <c r="E7">
         <v>14.5556047403251</v>
@@ -1822,16 +1884,16 @@
         <v>14.83436752729278</v>
       </c>
       <c r="G7">
-        <v>8.42048451060845</v>
+        <v>8.4204845106084498</v>
       </c>
       <c r="H7">
-        <v>4.17929561300453</v>
+        <v>4.1792956130045296</v>
       </c>
       <c r="J7">
-        <v>0.987889955628125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>0.98788995562812498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1839,28 +1901,28 @@
         <v>219</v>
       </c>
       <c r="C8">
-        <v>28.17256951203255</v>
+        <v>28.172569512032549</v>
       </c>
       <c r="D8">
-        <v>0.005890327310995268</v>
+        <v>5.8903273109952676E-3</v>
       </c>
       <c r="E8">
-        <v>14.85492424027784</v>
+        <v>14.854924240277841</v>
       </c>
       <c r="F8">
-        <v>14.93367920167075</v>
+        <v>14.933679201670749</v>
       </c>
       <c r="G8">
-        <v>8.358141425766826</v>
+        <v>8.3581414257668261</v>
       </c>
       <c r="H8">
-        <v>4.12316931809892</v>
+        <v>4.1231693180989204</v>
       </c>
       <c r="J8">
-        <v>0.7575795664960449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>0.75757956649604485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1868,28 +1930,28 @@
         <v>220</v>
       </c>
       <c r="C9">
-        <v>27.81119850969944</v>
+        <v>27.811198509699441</v>
       </c>
       <c r="D9">
-        <v>0.005814771778741267</v>
+        <v>5.8147717787412666E-3</v>
       </c>
       <c r="E9">
-        <v>14.88611428282861</v>
+        <v>14.886114282828609</v>
       </c>
       <c r="F9">
         <v>14.97281098021582</v>
       </c>
       <c r="G9">
-        <v>3.879773712082404</v>
+        <v>3.8797737120824038</v>
       </c>
       <c r="H9">
         <v>8.376219518345124</v>
       </c>
       <c r="J9">
-        <v>0.5823942990560891</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>0.58239429905608908</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1900,25 +1962,25 @@
         <v>27.62020788080428</v>
       </c>
       <c r="D10">
-        <v>0.005774839414139423</v>
+        <v>5.7748394141394228E-3</v>
       </c>
       <c r="E10">
-        <v>14.80571050797091</v>
+        <v>14.805710507970909</v>
       </c>
       <c r="F10">
         <v>14.9173026028227</v>
       </c>
       <c r="G10">
-        <v>7.511240392927876</v>
+        <v>7.5112403929278759</v>
       </c>
       <c r="H10">
         <v>4.215681447381975</v>
       </c>
       <c r="J10">
-        <v>0.9759834376717251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>0.97598343767172513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1929,25 +1991,25 @@
         <v>27.07897120771753</v>
       </c>
       <c r="D11">
-        <v>0.005661677526089649</v>
+        <v>5.6616775260896488E-3</v>
       </c>
       <c r="E11">
-        <v>14.88933016089734</v>
+        <v>14.889330160897339</v>
       </c>
       <c r="F11">
-        <v>14.99351277058063</v>
+        <v>14.993512770580629</v>
       </c>
       <c r="G11">
-        <v>2.633413892741849</v>
+        <v>2.6334138927418489</v>
       </c>
       <c r="H11">
         <v>3.978202815638276</v>
       </c>
       <c r="J11">
-        <v>5.47384172875678</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>5.4738417287567804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1955,28 +2017,28 @@
         <v>223</v>
       </c>
       <c r="C12">
-        <v>26.75296041041208</v>
+        <v>26.752960410412079</v>
       </c>
       <c r="D12">
-        <v>0.005593515113632826</v>
+        <v>5.5935151136328257E-3</v>
       </c>
       <c r="E12">
-        <v>14.89407407339064</v>
+        <v>14.894074073390639</v>
       </c>
       <c r="F12">
-        <v>14.9655470090062</v>
+        <v>14.965547009006199</v>
       </c>
       <c r="G12">
         <v>1.299965836837313</v>
       </c>
       <c r="H12">
-        <v>8.795392353033783</v>
+        <v>8.7953923530337832</v>
       </c>
       <c r="J12">
-        <v>1.692055211534777</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>1.6920552115347769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1984,28 +2046,28 @@
         <v>224</v>
       </c>
       <c r="C13">
-        <v>26.6837893123307</v>
+        <v>26.683789312330699</v>
       </c>
       <c r="D13">
-        <v>0.005579052804542196</v>
+        <v>5.579052804542196E-3</v>
       </c>
       <c r="E13">
-        <v>14.79970950072659</v>
+        <v>14.799709500726591</v>
       </c>
       <c r="F13">
-        <v>14.85900700080052</v>
+        <v>14.859007000800521</v>
       </c>
       <c r="G13">
-        <v>6.805104302704751</v>
+        <v>6.8051043027047511</v>
       </c>
       <c r="H13">
-        <v>4.314948648962893</v>
+        <v>4.3149486489628934</v>
       </c>
       <c r="J13">
-        <v>0.7047293598625304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>0.70472935986253038</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2016,25 +2078,25 @@
         <v>26.52985101750355</v>
       </c>
       <c r="D14">
-        <v>0.00554686735046634</v>
+        <v>5.5468673504663396E-3</v>
       </c>
       <c r="E14">
-        <v>14.73514653813901</v>
+        <v>14.735146538139009</v>
       </c>
       <c r="F14">
-        <v>14.91216740301041</v>
+        <v>14.912167403010409</v>
       </c>
       <c r="G14">
-        <v>5.498272376057552</v>
+        <v>5.4982723760575523</v>
       </c>
       <c r="H14">
-        <v>5.20441991334823</v>
+        <v>5.2044199133482296</v>
       </c>
       <c r="J14">
-        <v>0.9149913250873543</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>0.91499132508735426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -2045,25 +2107,25 @@
         <v>26.50572857752195</v>
       </c>
       <c r="D15">
-        <v>0.005541823825168771</v>
+        <v>5.5418238251687714E-3</v>
       </c>
       <c r="E15">
-        <v>14.8645371209926</v>
+        <v>14.864537120992599</v>
       </c>
       <c r="F15">
-        <v>14.97771978714029</v>
+        <v>14.977719787140289</v>
       </c>
       <c r="G15">
-        <v>6.713989466179147</v>
+        <v>6.7139894661791466</v>
       </c>
       <c r="H15">
-        <v>4.033966711270795</v>
+        <v>4.0339667112707946</v>
       </c>
       <c r="J15">
-        <v>0.7800526129317197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>0.78005261293171968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -2074,25 +2136,25 @@
         <v>26.49015869232862</v>
       </c>
       <c r="D16">
-        <v>0.005538568469992731</v>
+        <v>5.5385684699927312E-3</v>
       </c>
       <c r="E16">
         <v>14.88994830504396</v>
       </c>
       <c r="F16">
-        <v>14.9934362551443</v>
+        <v>14.993436255144299</v>
       </c>
       <c r="G16">
-        <v>2.281298775905599</v>
+        <v>2.2812987759055989</v>
       </c>
       <c r="H16">
         <v>3.929495881891329</v>
       </c>
       <c r="J16">
-        <v>5.285927779387388</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>5.2859277793873876</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -2103,25 +2165,25 @@
         <v>26.30080871381675</v>
       </c>
       <c r="D17">
-        <v>0.005498979132950241</v>
+        <v>5.4989791329502413E-3</v>
       </c>
       <c r="E17">
-        <v>14.89634900949</v>
+        <v>14.896349009490001</v>
       </c>
       <c r="F17">
-        <v>14.98917831870187</v>
+        <v>14.989178318701869</v>
       </c>
       <c r="G17">
-        <v>6.683853314178403</v>
+        <v>6.6838533141784033</v>
       </c>
       <c r="H17">
-        <v>4.088286268337043</v>
+        <v>4.0882862683370433</v>
       </c>
       <c r="J17">
         <v>0.5394908125994331</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,10 +2191,10 @@
         <v>229</v>
       </c>
       <c r="C18">
-        <v>26.20455575133107</v>
+        <v>26.204555751331071</v>
       </c>
       <c r="D18">
-        <v>0.005478854541423315</v>
+        <v>5.4788545414233151E-3</v>
       </c>
       <c r="E18">
         <v>13.71888429598703</v>
@@ -2141,16 +2203,16 @@
         <v>14.55160987229732</v>
       </c>
       <c r="G18">
-        <v>6.314467205347803</v>
+        <v>6.3144672053478033</v>
       </c>
       <c r="H18">
-        <v>4.405839567748403</v>
+        <v>4.4058395677484032</v>
       </c>
       <c r="J18">
-        <v>0.9326391059375428</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>0.93263910593754284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -2158,28 +2220,28 @@
         <v>230</v>
       </c>
       <c r="C19">
-        <v>26.16726103404969</v>
+        <v>26.167261034049691</v>
       </c>
       <c r="D19">
-        <v>0.005471056953359346</v>
+        <v>5.4710569533593456E-3</v>
       </c>
       <c r="E19">
-        <v>14.70869861578027</v>
+        <v>14.708698615780269</v>
       </c>
       <c r="F19">
-        <v>14.85730408650108</v>
+        <v>14.857304086501079</v>
       </c>
       <c r="G19">
-        <v>6.14001529839186</v>
+        <v>6.1400152983918597</v>
       </c>
       <c r="H19">
-        <v>4.210021588207765</v>
+        <v>4.2100215882077654</v>
       </c>
       <c r="J19">
-        <v>0.9599200609489927</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>0.95992006094899274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -2190,16 +2252,16 @@
         <v>26.10565553014386</v>
       </c>
       <c r="D20">
-        <v>0.005458176460438416</v>
+        <v>5.458176460438416E-3</v>
       </c>
       <c r="E20">
-        <v>14.87915670143708</v>
+        <v>14.879156701437079</v>
       </c>
       <c r="F20">
         <v>14.98743983451314</v>
       </c>
       <c r="G20">
-        <v>5.882973997853879</v>
+        <v>5.8829739978538793</v>
       </c>
       <c r="H20">
         <v>4.216932252127866</v>
@@ -2208,7 +2270,7 @@
         <v>1.018309445648977</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -2216,28 +2278,28 @@
         <v>232</v>
       </c>
       <c r="C21">
-        <v>26.09898731814191</v>
+        <v>26.098987318141909</v>
       </c>
       <c r="D21">
-        <v>0.005456782269139897</v>
+        <v>5.4567822691398973E-3</v>
       </c>
       <c r="E21">
         <v>14.51105569529402</v>
       </c>
       <c r="F21">
-        <v>14.60177366473268</v>
+        <v>14.601773664732679</v>
       </c>
       <c r="G21">
-        <v>6.330849582980537</v>
+        <v>6.3308495829805373</v>
       </c>
       <c r="H21">
-        <v>4.192841357351838</v>
+        <v>4.1928413573518384</v>
       </c>
       <c r="J21">
-        <v>0.9735227130768584</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>0.97352271307685845</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -2245,10 +2307,10 @@
         <v>233</v>
       </c>
       <c r="C22">
-        <v>26.06940444045047</v>
+        <v>26.069404440450469</v>
       </c>
       <c r="D22">
-        <v>0.005450597074270493</v>
+        <v>5.4505970742704931E-3</v>
       </c>
       <c r="E22">
         <v>14.76992453408203</v>
@@ -2257,16 +2319,16 @@
         <v>14.78655988873798</v>
       </c>
       <c r="G22">
-        <v>6.52527401043888</v>
+        <v>6.5252740104388796</v>
       </c>
       <c r="H22">
         <v>4.037438233096446</v>
       </c>
       <c r="J22">
-        <v>0.720132308177157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>0.72013230817715701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -2274,28 +2336,28 @@
         <v>234</v>
       </c>
       <c r="C23">
-        <v>25.98159868553427</v>
+        <v>25.981598685534269</v>
       </c>
       <c r="D23">
-        <v>0.005432238626844371</v>
+        <v>5.4322386268443714E-3</v>
       </c>
       <c r="E23">
-        <v>14.80737035219562</v>
+        <v>14.807370352195621</v>
       </c>
       <c r="F23">
         <v>14.97749621326488</v>
       </c>
       <c r="G23">
-        <v>5.791689506059932</v>
+        <v>5.7916895060599316</v>
       </c>
       <c r="H23">
-        <v>4.300130741299447</v>
+        <v>4.3001307412994469</v>
       </c>
       <c r="J23">
-        <v>0.9122822249100035</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>0.91228222491000355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -2303,28 +2365,28 @@
         <v>235</v>
       </c>
       <c r="C24">
-        <v>25.82148828147391</v>
+        <v>25.821488281473911</v>
       </c>
       <c r="D24">
-        <v>0.005398762706750947</v>
+        <v>5.3987627067509474E-3</v>
       </c>
       <c r="E24">
-        <v>14.70248499068899</v>
+        <v>14.702484990688991</v>
       </c>
       <c r="F24">
-        <v>14.73369351024519</v>
+        <v>14.733693510245191</v>
       </c>
       <c r="G24">
-        <v>5.299009232596018</v>
+        <v>5.2990092325960179</v>
       </c>
       <c r="H24">
-        <v>4.862984656309856</v>
+        <v>4.8629846563098562</v>
       </c>
       <c r="J24">
         <v>0.9258008823228483</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -2335,25 +2397,25 @@
         <v>25.44926059333287</v>
       </c>
       <c r="D25">
-        <v>0.005320937256132062</v>
+        <v>5.3209372561320622E-3</v>
       </c>
       <c r="E25">
         <v>14.82702837631326</v>
       </c>
       <c r="F25">
-        <v>14.92444589404013</v>
+        <v>14.924445894040129</v>
       </c>
       <c r="G25">
-        <v>5.468973853335584</v>
+        <v>5.4689738533355836</v>
       </c>
       <c r="H25">
-        <v>4.189465363695616</v>
+        <v>4.1894653636956161</v>
       </c>
       <c r="J25">
-        <v>0.8663754822615424</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>0.86637548226154237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -2361,28 +2423,28 @@
         <v>237</v>
       </c>
       <c r="C26">
-        <v>25.3846014724273</v>
+        <v>25.384601472427299</v>
       </c>
       <c r="D26">
-        <v>0.00530741831226674</v>
+        <v>5.3074183122667398E-3</v>
       </c>
       <c r="E26">
         <v>14.82320659532699</v>
       </c>
       <c r="F26">
-        <v>14.96803761018361</v>
+        <v>14.968037610183609</v>
       </c>
       <c r="G26">
-        <v>5.108153134771382</v>
+        <v>5.1081531347713822</v>
       </c>
       <c r="H26">
         <v>4.363563405691961</v>
       </c>
       <c r="J26">
-        <v>0.944847321780347</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>0.94484732178034703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -2390,28 +2452,28 @@
         <v>238</v>
       </c>
       <c r="C27">
-        <v>25.3608560975132</v>
+        <v>25.360856097513199</v>
       </c>
       <c r="D27">
-        <v>0.005302453623820179</v>
+        <v>5.302453623820179E-3</v>
       </c>
       <c r="E27">
-        <v>14.82889404287453</v>
+        <v>14.828894042874531</v>
       </c>
       <c r="F27">
         <v>14.96070711908804</v>
       </c>
       <c r="G27">
-        <v>5.076436848796541</v>
+        <v>5.0764368487965408</v>
       </c>
       <c r="H27">
-        <v>4.426983634487214</v>
+        <v>4.4269836344872138</v>
       </c>
       <c r="J27">
-        <v>0.8967284951414051</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>0.89672849514140507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -2419,10 +2481,10 @@
         <v>239</v>
       </c>
       <c r="C28">
-        <v>25.33296573946309</v>
+        <v>25.332965739463091</v>
       </c>
       <c r="D28">
-        <v>0.005296622301346528</v>
+        <v>5.2966223013465284E-3</v>
       </c>
       <c r="E28">
         <v>14.87122417002864</v>
@@ -2431,16 +2493,16 @@
         <v>14.96062860652693</v>
       </c>
       <c r="G28">
-        <v>5.194890768867953</v>
+        <v>5.1948907688679533</v>
       </c>
       <c r="H28">
-        <v>4.276416223480593</v>
+        <v>4.2764162234805934</v>
       </c>
       <c r="J28">
-        <v>0.9010301405876117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>0.90103014058761166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -2448,10 +2510,10 @@
         <v>240</v>
       </c>
       <c r="C29">
-        <v>25.21773186182685</v>
+        <v>25.217731861826849</v>
       </c>
       <c r="D29">
-        <v>0.005272529175715842</v>
+        <v>5.2725291757158418E-3</v>
       </c>
       <c r="E29">
         <v>14.8492249215158</v>
@@ -2460,16 +2522,16 @@
         <v>14.90573898083411</v>
       </c>
       <c r="G29">
-        <v>5.175079893925634</v>
+        <v>5.1750798939256342</v>
       </c>
       <c r="H29">
-        <v>4.217413123543248</v>
+        <v>4.2174131235432482</v>
       </c>
       <c r="J29">
-        <v>0.9194998635238545</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>0.91949986352385449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -2477,28 +2539,28 @@
         <v>241</v>
       </c>
       <c r="C30">
-        <v>24.98197152447067</v>
+        <v>24.981971524470669</v>
       </c>
       <c r="D30">
-        <v>0.005223236350175543</v>
+        <v>5.2232363501755431E-3</v>
       </c>
       <c r="E30">
-        <v>14.89543961759792</v>
+        <v>14.895439617597919</v>
       </c>
       <c r="F30">
-        <v>14.97563494964787</v>
+        <v>14.975634949647869</v>
       </c>
       <c r="G30">
         <v>2.249206579232621</v>
       </c>
       <c r="H30">
-        <v>4.29964349527689</v>
+        <v>4.2996434952768903</v>
       </c>
       <c r="J30">
-        <v>3.457486500313286</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>3.4574865003132862</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -2506,28 +2568,28 @@
         <v>242</v>
       </c>
       <c r="C31">
-        <v>24.94129378740123</v>
+        <v>24.941293787401229</v>
       </c>
       <c r="D31">
-        <v>0.005214731439556466</v>
+        <v>5.2147314395564661E-3</v>
       </c>
       <c r="E31">
-        <v>14.84551309281498</v>
+        <v>14.845513092814979</v>
       </c>
       <c r="F31">
         <v>14.95745720604751</v>
       </c>
       <c r="G31">
-        <v>4.837761260686793</v>
+        <v>4.8377612606867926</v>
       </c>
       <c r="H31">
-        <v>4.127765875017945</v>
+        <v>4.1277658750179453</v>
       </c>
       <c r="J31">
         <v>1.018309445648977</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -2535,28 +2597,28 @@
         <v>243</v>
       </c>
       <c r="C32">
-        <v>24.81271143340365</v>
+        <v>24.812711433403649</v>
       </c>
       <c r="D32">
-        <v>0.005187847411419077</v>
+        <v>5.1878474114190774E-3</v>
       </c>
       <c r="E32">
         <v>14.79075248811963</v>
       </c>
       <c r="F32">
-        <v>14.80353971040602</v>
+        <v>14.803539710406019</v>
       </c>
       <c r="G32">
-        <v>4.889410639575449</v>
+        <v>4.8894106395754493</v>
       </c>
       <c r="H32">
-        <v>4.209625918307718</v>
+        <v>4.2096259183077178</v>
       </c>
       <c r="J32">
         <v>0.9101351651144598</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
@@ -2564,28 +2626,28 @@
         <v>244</v>
       </c>
       <c r="C33">
-        <v>24.80510420157415</v>
+        <v>24.805104201574149</v>
       </c>
       <c r="D33">
-        <v>0.005186256889639115</v>
+        <v>5.1862568896391152E-3</v>
       </c>
       <c r="E33">
-        <v>14.86969507198022</v>
+        <v>14.869695071980219</v>
       </c>
       <c r="F33">
         <v>14.95292859304084</v>
       </c>
       <c r="G33">
-        <v>4.988983713263423</v>
+        <v>4.9889837132634227</v>
       </c>
       <c r="H33">
-        <v>4.109759106620383</v>
+        <v>4.1097591066203831</v>
       </c>
       <c r="J33">
         <v>0.7534327886495058</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -2596,25 +2658,25 @@
         <v>24.7763813660065</v>
       </c>
       <c r="D34">
-        <v>0.005180251512574695</v>
+        <v>5.1802515125746948E-3</v>
       </c>
       <c r="E34">
-        <v>14.68797976652622</v>
+        <v>14.687979766526221</v>
       </c>
       <c r="F34">
         <v>14.88637755259594</v>
       </c>
       <c r="G34">
-        <v>4.795512764003072</v>
+        <v>4.7955127640030719</v>
       </c>
       <c r="H34">
-        <v>4.159529463000886</v>
+        <v>4.1595294630008857</v>
       </c>
       <c r="J34">
-        <v>0.9349615864066023</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>0.93496158640660232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
@@ -2622,10 +2684,10 @@
         <v>246</v>
       </c>
       <c r="C35">
-        <v>24.76826600511285</v>
+        <v>24.768266005112849</v>
       </c>
       <c r="D35">
-        <v>0.005178554751053171</v>
+        <v>5.1785547510531712E-3</v>
       </c>
       <c r="E35">
         <v>14.86032541621675</v>
@@ -2634,7 +2696,7 @@
         <v>14.94257626929188</v>
       </c>
       <c r="G35">
-        <v>4.713859059382434</v>
+        <v>4.7138590593824343</v>
       </c>
       <c r="H35">
         <v>4.285789380820086</v>
@@ -2643,7 +2705,7 @@
         <v>0.8260412956184513</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
@@ -2651,28 +2713,28 @@
         <v>247</v>
       </c>
       <c r="C36">
-        <v>24.76515316705487</v>
+        <v>24.765153167054869</v>
       </c>
       <c r="D36">
-        <v>0.005177903918156306</v>
+        <v>5.1779039181563064E-3</v>
       </c>
       <c r="E36">
-        <v>14.87612708321461</v>
+        <v>14.876127083214611</v>
       </c>
       <c r="F36">
-        <v>14.94493611715598</v>
+        <v>14.944936117155979</v>
       </c>
       <c r="G36">
         <v>5.024804350565474</v>
       </c>
       <c r="H36">
-        <v>4.062840862815666</v>
+        <v>4.0628408628156656</v>
       </c>
       <c r="J36">
-        <v>0.7325718365177505</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>0.73257183651775049</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,13 +2742,13 @@
         <v>248</v>
       </c>
       <c r="C37">
-        <v>24.72425363760969</v>
+        <v>24.724253637609689</v>
       </c>
       <c r="D37">
-        <v>0.005169352635136315</v>
+        <v>5.1693526351363154E-3</v>
       </c>
       <c r="E37">
-        <v>14.03754937273725</v>
+        <v>14.037549372737249</v>
       </c>
       <c r="F37">
         <v>14.39870063879251</v>
@@ -2695,13 +2757,13 @@
         <v>5.225945325685446</v>
       </c>
       <c r="H37">
-        <v>4.145943866878201</v>
+        <v>4.1459438668782012</v>
       </c>
       <c r="J37">
-        <v>0.9536638062535313</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>0.95366380625353131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
@@ -2709,28 +2771,28 @@
         <v>249</v>
       </c>
       <c r="C38">
-        <v>24.68295833650303</v>
+        <v>24.682958336503031</v>
       </c>
       <c r="D38">
-        <v>0.005160718604086346</v>
+        <v>5.160718604086346E-3</v>
       </c>
       <c r="E38">
         <v>14.75909018426429</v>
       </c>
       <c r="F38">
-        <v>14.89291815756738</v>
+        <v>14.892918157567379</v>
       </c>
       <c r="G38">
-        <v>4.62610944703757</v>
+        <v>4.6261094470375701</v>
       </c>
       <c r="H38">
-        <v>4.370846897856151</v>
+        <v>4.3708468978561514</v>
       </c>
       <c r="J38">
         <v>0.7930838340419335</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -2738,13 +2800,13 @@
         <v>250</v>
       </c>
       <c r="C39">
-        <v>24.66629297296218</v>
+        <v>24.666292972962179</v>
       </c>
       <c r="D39">
-        <v>0.005157234206045535</v>
+        <v>5.1572342060455349E-3</v>
       </c>
       <c r="E39">
-        <v>14.87750986308516</v>
+        <v>14.877509863085161</v>
       </c>
       <c r="F39">
         <v>14.97359036029841</v>
@@ -2756,10 +2818,10 @@
         <v>4.093700676770462</v>
       </c>
       <c r="J39">
-        <v>3.114030804942253</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>3.1140308049422529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>47</v>
       </c>
@@ -2767,28 +2829,28 @@
         <v>251</v>
       </c>
       <c r="C40">
-        <v>24.63494389654167</v>
+        <v>24.634943896541671</v>
       </c>
       <c r="D40">
-        <v>0.005150679733939774</v>
+        <v>5.1506797339397744E-3</v>
       </c>
       <c r="E40">
         <v>14.55931615768197</v>
       </c>
       <c r="F40">
-        <v>14.51994932259253</v>
+        <v>14.519949322592529</v>
       </c>
       <c r="G40">
-        <v>4.86253670014998</v>
+        <v>4.8625367001499802</v>
       </c>
       <c r="H40">
-        <v>4.306879401181421</v>
+        <v>4.3068794011814209</v>
       </c>
       <c r="J40">
-        <v>0.9455784726177435</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>0.94557847261774353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -2796,28 +2858,28 @@
         <v>252</v>
       </c>
       <c r="C41">
-        <v>24.60534857159072</v>
+        <v>24.605348571590721</v>
       </c>
       <c r="D41">
-        <v>0.00514449193659449</v>
+        <v>5.1444919365944896E-3</v>
       </c>
       <c r="E41">
         <v>14.818142699611</v>
       </c>
       <c r="F41">
-        <v>14.89252533399175</v>
+        <v>14.892525333991751</v>
       </c>
       <c r="G41">
-        <v>4.976810704934987</v>
+        <v>4.9768107049349872</v>
       </c>
       <c r="H41">
-        <v>3.883555584062761</v>
+        <v>3.8835555840627611</v>
       </c>
       <c r="J41">
-        <v>0.852456948601223</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>0.85245694860122301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
@@ -2825,16 +2887,16 @@
         <v>253</v>
       </c>
       <c r="C42">
-        <v>24.49414445628222</v>
+        <v>24.494144456282221</v>
       </c>
       <c r="D42">
-        <v>0.00512124135459781</v>
+        <v>5.1212413545978098E-3</v>
       </c>
       <c r="E42">
-        <v>14.72791342248851</v>
+        <v>14.727913422488511</v>
       </c>
       <c r="F42">
-        <v>14.86663824583533</v>
+        <v>14.866638245835331</v>
       </c>
       <c r="G42">
         <v>4.559906858836861</v>
@@ -2843,10 +2905,10 @@
         <v>4.168464331680962</v>
       </c>
       <c r="J42">
-        <v>0.8991350199290701</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>0.89913501992907008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>50</v>
       </c>
@@ -2854,28 +2916,28 @@
         <v>254</v>
       </c>
       <c r="C43">
-        <v>24.40617581594027</v>
+        <v>24.406175815940269</v>
       </c>
       <c r="D43">
-        <v>0.00510284885104942</v>
+        <v>5.1028488510494203E-3</v>
       </c>
       <c r="E43">
-        <v>14.69359731388072</v>
+        <v>14.693597313880719</v>
       </c>
       <c r="F43">
         <v>14.78163491129783</v>
       </c>
       <c r="G43">
-        <v>4.833410212472845</v>
+        <v>4.8334102124728453</v>
       </c>
       <c r="H43">
-        <v>4.087004231314727</v>
+        <v>4.0870042313147268</v>
       </c>
       <c r="J43">
-        <v>0.7041264608548766</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>0.70412646085487662</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
@@ -2883,10 +2945,10 @@
         <v>255</v>
       </c>
       <c r="C44">
-        <v>24.25953206730095</v>
+        <v>24.259532067300949</v>
       </c>
       <c r="D44">
-        <v>0.005072188542367671</v>
+        <v>5.0721885423676708E-3</v>
       </c>
       <c r="E44">
         <v>14.89426848975299</v>
@@ -2895,16 +2957,16 @@
         <v>14.9923705232844</v>
       </c>
       <c r="G44">
-        <v>2.247424043321245</v>
+        <v>2.2474240433212449</v>
       </c>
       <c r="H44">
         <v>3.763529878594801</v>
       </c>
       <c r="J44">
-        <v>3.256207622100506</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>3.2562076221005061</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
@@ -2915,25 +2977,25 @@
         <v>24.25839371997267</v>
       </c>
       <c r="D45">
-        <v>0.005071950536446547</v>
+        <v>5.0719505364465473E-3</v>
       </c>
       <c r="E45">
         <v>14.86071987600811</v>
       </c>
       <c r="F45">
-        <v>14.9854144007653</v>
+        <v>14.985414400765301</v>
       </c>
       <c r="G45">
-        <v>4.384570863389706</v>
+        <v>4.3845708633897056</v>
       </c>
       <c r="H45">
-        <v>4.178185327054421</v>
+        <v>4.1781853270544209</v>
       </c>
       <c r="J45">
-        <v>0.7102231287632423</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>0.71022312876324234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
@@ -2941,28 +3003,28 @@
         <v>257</v>
       </c>
       <c r="C46">
-        <v>24.24420482667563</v>
+        <v>24.244204826675631</v>
       </c>
       <c r="D46">
-        <v>0.005068983919373701</v>
+        <v>5.0689839193737013E-3</v>
       </c>
       <c r="E46">
-        <v>14.82949246645594</v>
+        <v>14.829492466455941</v>
       </c>
       <c r="F46">
         <v>14.66400754253069</v>
       </c>
       <c r="G46">
-        <v>4.714871979105338</v>
+        <v>4.7148719791053377</v>
       </c>
       <c r="H46">
-        <v>4.037877990381633</v>
+        <v>4.0378779903816326</v>
       </c>
       <c r="J46">
         <v>0.8274473146579806</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
@@ -2970,10 +3032,10 @@
         <v>258</v>
       </c>
       <c r="C47">
-        <v>24.22589971860157</v>
+        <v>24.225899718601571</v>
       </c>
       <c r="D47">
-        <v>0.005065156683168877</v>
+        <v>5.0651566831688768E-3</v>
       </c>
       <c r="E47">
         <v>14.26390412146384</v>
@@ -2982,16 +3044,16 @@
         <v>14.13273106190266</v>
       </c>
       <c r="G47">
-        <v>5.129628829806249</v>
+        <v>5.1296288298062489</v>
       </c>
       <c r="H47">
-        <v>4.198313144728058</v>
+        <v>4.1983131447280577</v>
       </c>
       <c r="J47">
-        <v>0.7652266821646105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>0.76522668216461054</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
@@ -2999,28 +3061,28 @@
         <v>259</v>
       </c>
       <c r="C48">
-        <v>24.20612504090576</v>
+        <v>24.206125040905761</v>
       </c>
       <c r="D48">
-        <v>0.005061022189009656</v>
+        <v>5.0610221890096561E-3</v>
       </c>
       <c r="E48">
         <v>14.79840811499492</v>
       </c>
       <c r="F48">
-        <v>14.8624127956495</v>
+        <v>14.862412795649499</v>
       </c>
       <c r="G48">
-        <v>4.407311964091639</v>
+        <v>4.4073119640916394</v>
       </c>
       <c r="H48">
-        <v>4.193408883624045</v>
+        <v>4.1934088836240448</v>
       </c>
       <c r="J48">
-        <v>0.7429913975405796</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>0.74299139754057963</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
@@ -3028,28 +3090,28 @@
         <v>260</v>
       </c>
       <c r="C49">
-        <v>24.1942279721767</v>
+        <v>24.194227972176702</v>
       </c>
       <c r="D49">
-        <v>0.005058534747144417</v>
+        <v>5.0585347471444166E-3</v>
       </c>
       <c r="E49">
-        <v>14.80003339047076</v>
+        <v>14.800033390470761</v>
       </c>
       <c r="F49">
-        <v>14.91752290901663</v>
+        <v>14.917522909016631</v>
       </c>
       <c r="G49">
-        <v>4.304906788769309</v>
+        <v>4.3049067887693093</v>
       </c>
       <c r="H49">
-        <v>3.953488828741787</v>
+        <v>3.9534888287417869</v>
       </c>
       <c r="J49">
         <v>1.018309445648977</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
@@ -3057,28 +3119,28 @@
         <v>261</v>
       </c>
       <c r="C50">
-        <v>24.18602712169813</v>
+        <v>24.186027121698132</v>
       </c>
       <c r="D50">
-        <v>0.005056820111440823</v>
+        <v>5.0568201114408228E-3</v>
       </c>
       <c r="E50">
-        <v>14.89772288371183</v>
+        <v>14.897722883711831</v>
       </c>
       <c r="F50">
-        <v>14.97602681595295</v>
+        <v>14.976026815952951</v>
       </c>
       <c r="G50">
         <v>2.008956486446229</v>
       </c>
       <c r="H50">
-        <v>3.898416235337738</v>
+        <v>3.8984162353377378</v>
       </c>
       <c r="J50">
         <v>3.302627583961212</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
@@ -3089,7 +3151,7 @@
         <v>24.18181744541851</v>
       </c>
       <c r="D51">
-        <v>0.005055939951356394</v>
+        <v>5.0559399513563936E-3</v>
       </c>
       <c r="E51">
         <v>14.86940906892503</v>
@@ -3098,16 +3160,16 @@
         <v>14.93325176796489</v>
       </c>
       <c r="G51">
-        <v>4.279213240932473</v>
+        <v>4.2792132409324726</v>
       </c>
       <c r="H51">
-        <v>4.20060164544577</v>
+        <v>4.2006016454457704</v>
       </c>
       <c r="J51">
-        <v>0.7687507910753713</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>0.76875079107537125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
@@ -3115,10 +3177,10 @@
         <v>263</v>
       </c>
       <c r="C52">
-        <v>24.15995428860844</v>
+        <v>24.159954288608439</v>
       </c>
       <c r="D52">
-        <v>0.005051368797503782</v>
+        <v>5.0513687975037823E-3</v>
       </c>
       <c r="E52">
         <v>14.88189663477319</v>
@@ -3127,16 +3189,16 @@
         <v>14.96322403774915</v>
       </c>
       <c r="G52">
-        <v>2.158501803815355</v>
+        <v>2.1585018038153549</v>
       </c>
       <c r="H52">
-        <v>4.123666670590983</v>
+        <v>4.1236666705909828</v>
       </c>
       <c r="J52">
-        <v>2.914561776452955</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>2.9145617764529552</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
@@ -3144,10 +3206,10 @@
         <v>264</v>
       </c>
       <c r="C53">
-        <v>24.12817065159619</v>
+        <v>24.128170651596189</v>
       </c>
       <c r="D53">
-        <v>0.005044723467369587</v>
+        <v>5.0447234673695867E-3</v>
       </c>
       <c r="E53">
         <v>14.89341434108071</v>
@@ -3159,13 +3221,13 @@
         <v>2.192821520341758</v>
       </c>
       <c r="H53">
-        <v>4.185679017674583</v>
+        <v>4.1856790176745831</v>
       </c>
       <c r="J53">
-        <v>2.765211251177614</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>2.7652112511776141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
@@ -3176,7 +3238,7 @@
         <v>24.11673414877011</v>
       </c>
       <c r="D54">
-        <v>0.005042332320729236</v>
+        <v>5.0423323207292358E-3</v>
       </c>
       <c r="E54">
         <v>14.8936665710658</v>
@@ -3185,16 +3247,16 @@
         <v>14.99571772529861</v>
       </c>
       <c r="G54">
-        <v>4.123676016459642</v>
+        <v>4.1236760164596422</v>
       </c>
       <c r="H54">
-        <v>4.156097670702801</v>
+        <v>4.1560976707028008</v>
       </c>
       <c r="J54">
-        <v>0.8412427363090602</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>0.84124273630906021</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
@@ -3202,10 +3264,10 @@
         <v>266</v>
       </c>
       <c r="C55">
-        <v>24.06383720645355</v>
+        <v>24.063837206453549</v>
       </c>
       <c r="D55">
-        <v>0.005031272615867658</v>
+        <v>5.0312726158676579E-3</v>
       </c>
       <c r="E55">
         <v>14.85354389832262</v>
@@ -3214,16 +3276,16 @@
         <v>14.93453074844594</v>
       </c>
       <c r="G55">
-        <v>4.524676951843518</v>
+        <v>4.5246769518435181</v>
       </c>
       <c r="H55">
-        <v>3.868575149869072</v>
+        <v>3.8685751498690721</v>
       </c>
       <c r="J55">
-        <v>0.7360543562950225</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>0.73605435629502247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
@@ -3234,7 +3296,7 @@
         <v>24.05468473902587</v>
       </c>
       <c r="D56">
-        <v>0.00502935901587355</v>
+        <v>5.0293590158735496E-3</v>
       </c>
       <c r="E56">
         <v>14.70446572658641</v>
@@ -3243,16 +3305,16 @@
         <v>14.85667313491807</v>
       </c>
       <c r="G56">
-        <v>4.319552020892361</v>
+        <v>4.3195520208923606</v>
       </c>
       <c r="H56">
-        <v>4.089973519560733</v>
+        <v>4.0899735195607327</v>
       </c>
       <c r="J56">
-        <v>0.7884860636547129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>0.78848606365471285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>64</v>
       </c>
@@ -3260,10 +3322,10 @@
         <v>268</v>
       </c>
       <c r="C57">
-        <v>24.04140770113076</v>
+        <v>24.041407701130758</v>
       </c>
       <c r="D57">
-        <v>0.005026583049737791</v>
+        <v>5.0265830497377914E-3</v>
       </c>
       <c r="E57">
         <v>14.86705296543307</v>
@@ -3272,16 +3334,16 @@
         <v>14.96168467903145</v>
       </c>
       <c r="G57">
-        <v>4.016190982217649</v>
+        <v>4.0161909822176494</v>
       </c>
       <c r="H57">
-        <v>4.167771447640452</v>
+        <v>4.1677714476404519</v>
       </c>
       <c r="J57">
-        <v>0.8957605922412097</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>0.89576059224120974</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
@@ -3289,10 +3351,10 @@
         <v>269</v>
       </c>
       <c r="C58">
-        <v>24.02990938565699</v>
+        <v>24.029909385656989</v>
       </c>
       <c r="D58">
-        <v>0.005024178979294849</v>
+        <v>5.024178979294849E-3</v>
       </c>
       <c r="E58">
         <v>14.89270181262002</v>
@@ -3301,16 +3363,16 @@
         <v>14.94607169485961</v>
       </c>
       <c r="G58">
-        <v>2.185981684157362</v>
+        <v>2.1859816841573618</v>
       </c>
       <c r="H58">
-        <v>4.014169894314001</v>
+        <v>4.0141698943140014</v>
       </c>
       <c r="J58">
-        <v>2.883686112326013</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>2.8836861123260129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>66</v>
       </c>
@@ -3318,28 +3380,28 @@
         <v>270</v>
       </c>
       <c r="C59">
-        <v>23.95656338963012</v>
+        <v>23.956563389630119</v>
       </c>
       <c r="D59">
-        <v>0.005008843781581887</v>
+        <v>5.0088437815818867E-3</v>
       </c>
       <c r="E59">
-        <v>14.84108060115073</v>
+        <v>14.841080601150731</v>
       </c>
       <c r="F59">
         <v>14.97916788627739</v>
       </c>
       <c r="G59">
-        <v>4.231895951130863</v>
+        <v>4.2318959511308627</v>
       </c>
       <c r="H59">
         <v>4.204672689832103</v>
       </c>
       <c r="J59">
-        <v>0.5408268623897576</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>0.54082686238975763</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>67</v>
       </c>
@@ -3350,7 +3412,7 @@
         <v>23.95599515779865</v>
       </c>
       <c r="D60">
-        <v>0.005008724975539914</v>
+        <v>5.0087249755399136E-3</v>
       </c>
       <c r="E60">
         <v>14.73521003006327</v>
@@ -3359,16 +3421,16 @@
         <v>14.91583124102435</v>
       </c>
       <c r="G60">
-        <v>3.850389756182085</v>
+        <v>3.8503897561820848</v>
       </c>
       <c r="H60">
-        <v>4.171464714943231</v>
+        <v>4.1714647149432311</v>
       </c>
       <c r="J60">
         <v>1.018309445648977</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>68</v>
       </c>
@@ -3376,28 +3438,28 @@
         <v>272</v>
       </c>
       <c r="C61">
-        <v>23.93532662148897</v>
+        <v>23.935326621488969</v>
       </c>
       <c r="D61">
-        <v>0.005004403593216191</v>
+        <v>5.0044035932161907E-3</v>
       </c>
       <c r="E61">
-        <v>14.84060679930458</v>
+        <v>14.840606799304579</v>
       </c>
       <c r="F61">
-        <v>14.96387665171584</v>
+        <v>14.963876651715839</v>
       </c>
       <c r="G61">
         <v>3.689589894718496</v>
       </c>
       <c r="H61">
-        <v>4.369576988166155</v>
+        <v>4.3695769881661546</v>
       </c>
       <c r="J61">
-        <v>0.9122830868884821</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>0.91228308688848214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>69</v>
       </c>
@@ -3408,25 +3470,25 @@
         <v>23.86725647665784</v>
       </c>
       <c r="D62">
-        <v>0.004990171471684252</v>
+        <v>4.9901714716842523E-3</v>
       </c>
       <c r="E62">
-        <v>14.32294238675219</v>
+        <v>14.322942386752191</v>
       </c>
       <c r="F62">
-        <v>14.2554208560094</v>
+        <v>14.255420856009399</v>
       </c>
       <c r="G62">
-        <v>4.645014418310176</v>
+        <v>4.6450144183101756</v>
       </c>
       <c r="H62">
-        <v>4.132564519744752</v>
+        <v>4.1325645197447516</v>
       </c>
       <c r="J62">
         <v>0.8342566825935146</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>70</v>
       </c>
@@ -3437,7 +3499,7 @@
         <v>23.82364147361978</v>
       </c>
       <c r="D63">
-        <v>0.004981052436821122</v>
+        <v>4.9810524368211224E-3</v>
       </c>
       <c r="E63">
         <v>14.88105228996703</v>
@@ -3449,13 +3511,13 @@
         <v>4.079115688452819</v>
       </c>
       <c r="H63">
-        <v>3.908683951790271</v>
+        <v>3.9086839517902709</v>
       </c>
       <c r="J63">
-        <v>0.8867878781429513</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>0.88678787814295135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>71</v>
       </c>
@@ -3466,25 +3528,25 @@
         <v>23.80503934849585</v>
       </c>
       <c r="D64">
-        <v>0.004977163100223222</v>
+        <v>4.9771631002232218E-3</v>
       </c>
       <c r="E64">
-        <v>14.83683151165003</v>
+        <v>14.836831511650029</v>
       </c>
       <c r="F64">
         <v>14.8008090954556</v>
       </c>
       <c r="G64">
-        <v>4.34214166406674</v>
+        <v>4.3421416640667401</v>
       </c>
       <c r="H64">
-        <v>3.643779143324539</v>
+        <v>3.6437791433245388</v>
       </c>
       <c r="J64">
         <v>1.018309445648977</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>72</v>
       </c>
@@ -3492,28 +3554,28 @@
         <v>276</v>
       </c>
       <c r="C65">
-        <v>23.77852736663372</v>
+        <v>23.778527366633721</v>
       </c>
       <c r="D65">
-        <v>0.004971619968959868</v>
+        <v>4.9716199689598681E-3</v>
       </c>
       <c r="E65">
-        <v>14.29456529618749</v>
+        <v>14.294565296187489</v>
       </c>
       <c r="F65">
-        <v>14.69512298421538</v>
+        <v>14.695122984215381</v>
       </c>
       <c r="G65">
-        <v>4.377413764788341</v>
+        <v>4.3774137647883409</v>
       </c>
       <c r="H65">
         <v>3.76550970668425</v>
       </c>
       <c r="J65">
-        <v>0.9404809109457432</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>0.94048091094574315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
@@ -3524,25 +3586,25 @@
         <v>23.77129629397465</v>
       </c>
       <c r="D66">
-        <v>0.004970108094625746</v>
+        <v>4.9701080946257456E-3</v>
       </c>
       <c r="E66">
         <v>14.85092084405615</v>
       </c>
       <c r="F66">
-        <v>14.93546932789702</v>
+        <v>14.935469327897019</v>
       </c>
       <c r="G66">
-        <v>4.006241376373612</v>
+        <v>4.0062413763736124</v>
       </c>
       <c r="H66">
-        <v>4.193704497101186</v>
+        <v>4.1937044971011863</v>
       </c>
       <c r="J66">
-        <v>0.6358810926028288</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>0.63588109260282877</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,28 +3612,28 @@
         <v>278</v>
       </c>
       <c r="C67">
-        <v>23.76852795328831</v>
+        <v>23.768527953288309</v>
       </c>
       <c r="D67">
-        <v>0.00496952928931855</v>
+        <v>4.9695292893185503E-3</v>
       </c>
       <c r="E67">
         <v>14.88872628579225</v>
       </c>
       <c r="F67">
-        <v>14.98907602948601</v>
+        <v>14.989076029486011</v>
       </c>
       <c r="G67">
-        <v>3.769803950710158</v>
+        <v>3.7698039507101582</v>
       </c>
       <c r="H67">
-        <v>4.382809062167673</v>
+        <v>4.3828090621676727</v>
       </c>
       <c r="J67">
-        <v>0.62683891092446</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+        <v>0.62683891092445998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>75</v>
       </c>
@@ -3582,25 +3644,25 @@
         <v>23.75097467648364</v>
       </c>
       <c r="D68">
-        <v>0.004965859246168393</v>
+        <v>4.9658592461683934E-3</v>
       </c>
       <c r="E68">
         <v>14.22082080471862</v>
       </c>
       <c r="F68">
-        <v>14.56808950782763</v>
+        <v>14.568089507827629</v>
       </c>
       <c r="G68">
-        <v>4.273045265862286</v>
+        <v>4.2730452658622857</v>
       </c>
       <c r="H68">
-        <v>4.009391103031485</v>
+        <v>4.0093911030314846</v>
       </c>
       <c r="J68">
-        <v>0.9004487997622427</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>0.90044879976224268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>76</v>
       </c>
@@ -3611,25 +3673,25 @@
         <v>23.73907233917036</v>
       </c>
       <c r="D69">
-        <v>0.004963370702746353</v>
+        <v>4.9633707027463532E-3</v>
       </c>
       <c r="E69">
-        <v>14.8827511171035</v>
+        <v>14.882751117103499</v>
       </c>
       <c r="F69">
-        <v>14.99311156252283</v>
+        <v>14.993111562522831</v>
       </c>
       <c r="G69">
         <v>2.035983244889144</v>
       </c>
       <c r="H69">
-        <v>5.059263108242929</v>
+        <v>5.0592631082429289</v>
       </c>
       <c r="J69">
-        <v>1.650714423515453</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+        <v>1.6507144235154529</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>77</v>
       </c>
@@ -3637,28 +3699,28 @@
         <v>281</v>
       </c>
       <c r="C70">
-        <v>23.70853168544018</v>
+        <v>23.708531685440182</v>
       </c>
       <c r="D70">
-        <v>0.00495698525584256</v>
+        <v>4.9569852558425604E-3</v>
       </c>
       <c r="E70">
-        <v>14.89315563462175</v>
+        <v>14.893155634621751</v>
       </c>
       <c r="F70">
         <v>14.99474074613039</v>
       </c>
       <c r="G70">
-        <v>2.078885868915666</v>
+        <v>2.0788858689156662</v>
       </c>
       <c r="H70">
-        <v>4.852192933299833</v>
+        <v>4.8521929332998326</v>
       </c>
       <c r="J70">
         <v>1.782712137094288</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>78</v>
       </c>
@@ -3666,10 +3728,10 @@
         <v>282</v>
       </c>
       <c r="C71">
-        <v>23.70653547483099</v>
+        <v>23.706535474830989</v>
       </c>
       <c r="D71">
-        <v>0.004956567887669423</v>
+        <v>4.9565678876694226E-3</v>
       </c>
       <c r="E71">
         <v>14.8810551705182</v>
@@ -3678,16 +3740,16 @@
         <v>14.99212976978181</v>
       </c>
       <c r="G71">
-        <v>3.59874159818475</v>
+        <v>3.5987415981847501</v>
       </c>
       <c r="H71">
-        <v>4.097354661215459</v>
+        <v>4.0973546612154594</v>
       </c>
       <c r="J71">
         <v>1.018309445648977</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>79</v>
       </c>
@@ -3695,28 +3757,28 @@
         <v>283</v>
       </c>
       <c r="C72">
-        <v>23.69883729638113</v>
+        <v>23.698837296381129</v>
       </c>
       <c r="D72">
-        <v>0.004954958350749165</v>
+        <v>4.9549583507491647E-3</v>
       </c>
       <c r="E72">
         <v>14.77309070722969</v>
       </c>
       <c r="F72">
-        <v>14.91515186625558</v>
+        <v>14.915151866255581</v>
       </c>
       <c r="G72">
-        <v>3.980274731403749</v>
+        <v>3.9802747314037492</v>
       </c>
       <c r="H72">
-        <v>4.118948738656441</v>
+        <v>4.1189487386564414</v>
       </c>
       <c r="J72">
-        <v>0.6844619600653601</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>0.68446196006536009</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>80</v>
       </c>
@@ -3724,10 +3786,10 @@
         <v>284</v>
       </c>
       <c r="C73">
-        <v>23.69844968871711</v>
+        <v>23.698449688717108</v>
       </c>
       <c r="D73">
-        <v>0.004954877309649654</v>
+        <v>4.9548773096496539E-3</v>
       </c>
       <c r="E73">
         <v>14.87972625836791</v>
@@ -3736,16 +3798,16 @@
         <v>14.88726164823111</v>
       </c>
       <c r="G73">
-        <v>2.590491711897399</v>
+        <v>2.5904917118973989</v>
       </c>
       <c r="H73">
-        <v>4.280830680215685</v>
+        <v>4.2808306802156846</v>
       </c>
       <c r="J73">
         <v>1.939865648372916</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>81</v>
       </c>
@@ -3756,25 +3818,25 @@
         <v>23.64326486132553</v>
       </c>
       <c r="D74">
-        <v>0.004943339253250563</v>
+        <v>4.9433392532505626E-3</v>
       </c>
       <c r="E74">
-        <v>14.68545681112285</v>
+        <v>14.685456811122849</v>
       </c>
       <c r="F74">
         <v>14.88412931691076</v>
       </c>
       <c r="G74">
-        <v>4.727133084322095</v>
+        <v>4.7271330843220953</v>
       </c>
       <c r="H74">
         <v>3.307160821209238</v>
       </c>
       <c r="J74">
-        <v>0.7248416388834437</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>0.72484163888344366</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>82</v>
       </c>
@@ -3785,7 +3847,7 @@
         <v>23.60805599597753</v>
       </c>
       <c r="D75">
-        <v>0.004935977775588403</v>
+        <v>4.9359777755884028E-3</v>
       </c>
       <c r="E75">
         <v>14.89140472369597</v>
@@ -3794,16 +3856,16 @@
         <v>14.95413997728765</v>
       </c>
       <c r="G75">
-        <v>3.951556521182243</v>
+        <v>3.9515565211822432</v>
       </c>
       <c r="H75">
-        <v>4.149743136496821</v>
+        <v>4.1497431364968209</v>
       </c>
       <c r="J75">
-        <v>0.552616361010824</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>0.55261636101082401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>83</v>
       </c>
@@ -3811,10 +3873,10 @@
         <v>287</v>
       </c>
       <c r="C76">
-        <v>23.59765948590247</v>
+        <v>23.597659485902469</v>
       </c>
       <c r="D76">
-        <v>0.00493380407087155</v>
+        <v>4.9338040708715499E-3</v>
       </c>
       <c r="E76">
         <v>14.86831773025575</v>
@@ -3823,16 +3885,16 @@
         <v>14.9691418001374</v>
       </c>
       <c r="G76">
-        <v>3.757400229442341</v>
+        <v>3.7574002294423412</v>
       </c>
       <c r="H76">
-        <v>4.120789793044924</v>
+        <v>4.1207897930449242</v>
       </c>
       <c r="J76">
-        <v>0.7503276632778098</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>0.75032766327780975</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>84</v>
       </c>
@@ -3843,25 +3905,25 @@
         <v>23.57682760823986</v>
       </c>
       <c r="D77">
-        <v>0.004929448537100198</v>
+        <v>4.929448537100198E-3</v>
       </c>
       <c r="E77">
         <v>14.88687804683927</v>
       </c>
       <c r="F77">
-        <v>14.99730166103357</v>
+        <v>14.997301661033569</v>
       </c>
       <c r="G77">
-        <v>3.531478554221715</v>
+        <v>3.5314785542217151</v>
       </c>
       <c r="H77">
-        <v>4.029737947335597</v>
+        <v>4.0297379473355974</v>
       </c>
       <c r="J77">
         <v>1.018309445648977</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>85</v>
       </c>
@@ -3869,28 +3931,28 @@
         <v>289</v>
       </c>
       <c r="C78">
-        <v>23.57038639254463</v>
+        <v>23.570386392544631</v>
       </c>
       <c r="D78">
-        <v>0.00492810180624168</v>
+        <v>4.92810180624168E-3</v>
       </c>
       <c r="E78">
-        <v>14.80150325274749</v>
+        <v>14.801503252747491</v>
       </c>
       <c r="F78">
-        <v>14.84588984978111</v>
+        <v>14.845889849781109</v>
       </c>
       <c r="G78">
-        <v>4.015679551963972</v>
+        <v>4.0156795519639719</v>
       </c>
       <c r="H78">
-        <v>3.973524132395146</v>
+        <v>3.9735241323951458</v>
       </c>
       <c r="J78">
-        <v>0.7352928584044108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>0.73529285840441083</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>86</v>
       </c>
@@ -3901,7 +3963,7 @@
         <v>23.56735547797398</v>
       </c>
       <c r="D79">
-        <v>0.004927468101926382</v>
+        <v>4.9274681019263822E-3</v>
       </c>
       <c r="E79">
         <v>14.57629633488189</v>
@@ -3910,16 +3972,16 @@
         <v>14.80796442188544</v>
       </c>
       <c r="G79">
-        <v>3.726073429231553</v>
+        <v>3.7260734292315529</v>
       </c>
       <c r="H79">
-        <v>4.335708084761322</v>
+        <v>4.3357080847613219</v>
       </c>
       <c r="J79">
-        <v>0.6976095420956677</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+        <v>0.69760954209566772</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>87</v>
       </c>
@@ -3930,7 +3992,7 @@
         <v>23.53567503124264</v>
       </c>
       <c r="D80">
-        <v>0.004920844346839845</v>
+        <v>4.9208443468398448E-3</v>
       </c>
       <c r="E80">
         <v>14.79879101228383</v>
@@ -3945,10 +4007,10 @@
         <v>4.060488306841318</v>
       </c>
       <c r="J80">
-        <v>0.9688497548231801</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+        <v>0.96884975482318014</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>88</v>
       </c>
@@ -3959,7 +4021,7 @@
         <v>23.50479769055724</v>
       </c>
       <c r="D81">
-        <v>0.004914388505350043</v>
+        <v>4.9143885053500426E-3</v>
       </c>
       <c r="E81">
         <v>14.89146437978596</v>
@@ -3968,7 +4030,7 @@
         <v>14.9921193536451</v>
       </c>
       <c r="G81">
-        <v>2.436658707101301</v>
+        <v>2.4366587071013011</v>
       </c>
       <c r="H81">
         <v>3.999591039625972</v>
@@ -3977,7 +4039,7 @@
         <v>2.076428590184864</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>89</v>
       </c>
@@ -3988,25 +4050,25 @@
         <v>23.47162817908832</v>
       </c>
       <c r="D82">
-        <v>0.004907453416265807</v>
+        <v>4.9074534162658074E-3</v>
       </c>
       <c r="E82">
         <v>14.87865948708675</v>
       </c>
       <c r="F82">
-        <v>14.95315629875724</v>
+        <v>14.953156298757239</v>
       </c>
       <c r="G82">
-        <v>2.200103374264419</v>
+        <v>2.2001033742644189</v>
       </c>
       <c r="H82">
-        <v>4.761530237128698</v>
+        <v>4.7615302371286976</v>
       </c>
       <c r="J82">
-        <v>1.556838268937958</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+        <v>1.5568382689379581</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>90</v>
       </c>
@@ -4017,7 +4079,7 @@
         <v>23.45996817404124</v>
       </c>
       <c r="D83">
-        <v>0.004905015539729702</v>
+        <v>4.9050155397297023E-3</v>
       </c>
       <c r="E83">
         <v>14.86269825442365</v>
@@ -4026,16 +4088,16 @@
         <v>14.96632274252223</v>
       </c>
       <c r="G83">
-        <v>4.079965380521256</v>
+        <v>4.0799653805212559</v>
       </c>
       <c r="H83">
         <v>3.9415450054412</v>
       </c>
       <c r="J83">
-        <v>0.4721350455565563</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+        <v>0.47213504555655628</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>91</v>
       </c>
@@ -4043,10 +4105,10 @@
         <v>295</v>
       </c>
       <c r="C84">
-        <v>23.45913823906738</v>
+        <v>23.459138239067379</v>
       </c>
       <c r="D84">
-        <v>0.004904842016734549</v>
+        <v>4.904842016734549E-3</v>
       </c>
       <c r="E84">
         <v>14.78179321322496</v>
@@ -4058,13 +4120,13 @@
         <v>3.777052191876765</v>
       </c>
       <c r="H84">
-        <v>4.074046547125495</v>
+        <v>4.0740465471254952</v>
       </c>
       <c r="J84">
-        <v>0.6972154300531342</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+        <v>0.69721543005313424</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>92</v>
       </c>
@@ -4072,28 +4134,28 @@
         <v>296</v>
       </c>
       <c r="C85">
-        <v>23.45717872264662</v>
+        <v>23.457178722646621</v>
       </c>
       <c r="D85">
-        <v>0.004904432320590767</v>
+        <v>4.9044323205907668E-3</v>
       </c>
       <c r="E85">
         <v>14.8936182389125</v>
       </c>
       <c r="F85">
-        <v>14.98950058930781</v>
+        <v>14.989500589307809</v>
       </c>
       <c r="G85">
         <v>2.215937338245749</v>
       </c>
       <c r="H85">
-        <v>4.434388044372671</v>
+        <v>4.4343880443726711</v>
       </c>
       <c r="J85">
-        <v>1.817352750720388</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
+        <v>1.8173527507203879</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>93</v>
       </c>
@@ -4101,28 +4163,28 @@
         <v>297</v>
       </c>
       <c r="C86">
-        <v>23.44090405538024</v>
+        <v>23.440904055380241</v>
       </c>
       <c r="D86">
-        <v>0.004901029609416851</v>
+        <v>4.9010296094168506E-3</v>
       </c>
       <c r="E86">
         <v>14.88621733211084</v>
       </c>
       <c r="F86">
-        <v>14.98431107334627</v>
+        <v>14.984311073346269</v>
       </c>
       <c r="G86">
-        <v>3.868056244563639</v>
+        <v>3.8680562445636388</v>
       </c>
       <c r="H86">
         <v>4.172662873426872</v>
       </c>
       <c r="J86">
-        <v>0.4158738640434504</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+        <v>0.41587386404345039</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>94</v>
       </c>
@@ -4130,28 +4192,28 @@
         <v>298</v>
       </c>
       <c r="C87">
-        <v>23.41021723945933</v>
+        <v>23.410217239459332</v>
       </c>
       <c r="D87">
-        <v>0.004894613602888613</v>
+        <v>4.8946136028886131E-3</v>
       </c>
       <c r="E87">
-        <v>14.8836931695542</v>
+        <v>14.883693169554199</v>
       </c>
       <c r="F87">
-        <v>14.98804252166211</v>
+        <v>14.988042521662109</v>
       </c>
       <c r="G87">
         <v>1.860713417444767</v>
       </c>
       <c r="H87">
-        <v>4.442203223150542</v>
+        <v>4.4422032231505417</v>
       </c>
       <c r="J87">
-        <v>2.119258077201908</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
+        <v>2.1192580772019078</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>95</v>
       </c>
@@ -4159,10 +4221,10 @@
         <v>299</v>
       </c>
       <c r="C88">
-        <v>23.37329477890789</v>
+        <v>23.373294778907891</v>
       </c>
       <c r="D88">
-        <v>0.004886893846347331</v>
+        <v>4.8868938463473314E-3</v>
       </c>
       <c r="E88">
         <v>14.88002219821297</v>
@@ -4171,16 +4233,16 @@
         <v>14.98637443870409</v>
       </c>
       <c r="G88">
-        <v>3.689970577637044</v>
+        <v>3.6899705776370442</v>
       </c>
       <c r="H88">
-        <v>3.986993235765677</v>
+        <v>3.9869932357656772</v>
       </c>
       <c r="J88">
-        <v>0.7099565268010847</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
+        <v>0.70995652680108468</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>96</v>
       </c>
@@ -4188,28 +4250,28 @@
         <v>300</v>
       </c>
       <c r="C89">
-        <v>23.35904996501233</v>
+        <v>23.359049965012328</v>
       </c>
       <c r="D89">
-        <v>0.004883915537382887</v>
+        <v>4.8839155373828873E-3</v>
       </c>
       <c r="E89">
         <v>14.87927676691335</v>
       </c>
       <c r="F89">
-        <v>14.97402396579282</v>
+        <v>14.974023965792821</v>
       </c>
       <c r="G89">
         <v>2.194112820955628</v>
       </c>
       <c r="H89">
-        <v>4.28808057211042</v>
+        <v>4.2880805721104203</v>
       </c>
       <c r="J89">
-        <v>1.902832606153457</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+        <v>1.9028326061534571</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>97</v>
       </c>
@@ -4217,28 +4279,28 @@
         <v>301</v>
       </c>
       <c r="C90">
-        <v>23.35578116564898</v>
+        <v>23.355781165648981</v>
       </c>
       <c r="D90">
-        <v>0.004883232096060437</v>
+        <v>4.8832320960604369E-3</v>
       </c>
       <c r="E90">
         <v>14.89590338337387</v>
       </c>
       <c r="F90">
-        <v>14.97382422363247</v>
+        <v>14.973824223632469</v>
       </c>
       <c r="G90">
         <v>1.745546828275796</v>
       </c>
       <c r="H90">
-        <v>4.1977556901369</v>
+        <v>4.1977556901369004</v>
       </c>
       <c r="J90">
         <v>2.438654423603809</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>98</v>
       </c>
@@ -4249,25 +4311,25 @@
         <v>23.33191528093699</v>
       </c>
       <c r="D91">
-        <v>0.004878242211397625</v>
+        <v>4.8782422113976247E-3</v>
       </c>
       <c r="E91">
-        <v>14.89418084628968</v>
+        <v>14.894180846289681</v>
       </c>
       <c r="F91">
-        <v>14.99730144463044</v>
+        <v>14.997301444630439</v>
       </c>
       <c r="G91">
         <v>3.290659850243308</v>
       </c>
       <c r="H91">
-        <v>4.121994345358604</v>
+        <v>4.1219943453586039</v>
       </c>
       <c r="J91">
-        <v>0.9219596407046357</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
+        <v>0.92195964070463565</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>99</v>
       </c>
@@ -4275,28 +4337,28 @@
         <v>303</v>
       </c>
       <c r="C92">
-        <v>23.32710105638757</v>
+        <v>23.327101056387569</v>
       </c>
       <c r="D92">
-        <v>0.004877235652221949</v>
+        <v>4.8772356522219489E-3</v>
       </c>
       <c r="E92">
         <v>14.82463472734289</v>
       </c>
       <c r="F92">
-        <v>14.95376658705471</v>
+        <v>14.953766587054711</v>
       </c>
       <c r="G92">
         <v>3.459727671290616</v>
       </c>
       <c r="H92">
-        <v>4.137780212913371</v>
+        <v>4.1377802129133707</v>
       </c>
       <c r="J92">
-        <v>0.7758265851288726</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
+        <v>0.77582658512887259</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>100</v>
       </c>
@@ -4307,25 +4369,25 @@
         <v>23.26669218811826</v>
       </c>
       <c r="D93">
-        <v>0.004864605352155033</v>
+        <v>4.8646053521550327E-3</v>
       </c>
       <c r="E93">
-        <v>14.78122445494713</v>
+        <v>14.781224454947131</v>
       </c>
       <c r="F93">
         <v>14.97662193220015</v>
       </c>
       <c r="G93">
-        <v>3.347226666460606</v>
+        <v>3.3472266664606058</v>
       </c>
       <c r="H93">
-        <v>4.110662894558471</v>
+        <v>4.1106628945584713</v>
       </c>
       <c r="J93">
-        <v>0.8321806948990348</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+        <v>0.83218069489903479</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>101</v>
       </c>
@@ -4333,10 +4395,10 @@
         <v>305</v>
       </c>
       <c r="C94">
-        <v>23.26026430982862</v>
+        <v>23.260264309828621</v>
       </c>
       <c r="D94">
-        <v>0.004863261409884342</v>
+        <v>4.8632614098843424E-3</v>
       </c>
       <c r="E94">
         <v>14.86364462751744</v>
@@ -4345,16 +4407,16 @@
         <v>14.9910026395351</v>
       </c>
       <c r="G94">
-        <v>3.588899665672879</v>
+        <v>3.5888996656728791</v>
       </c>
       <c r="H94">
-        <v>4.101664530164268</v>
+        <v>4.1016645301642676</v>
       </c>
       <c r="J94">
-        <v>0.5786974744563748</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
+        <v>0.57869747445637476</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>102</v>
       </c>
@@ -4362,28 +4424,28 @@
         <v>306</v>
       </c>
       <c r="C95">
-        <v>23.23854808535295</v>
+        <v>23.238548085352949</v>
       </c>
       <c r="D95">
-        <v>0.004858720976677987</v>
+        <v>4.8587209766779871E-3</v>
       </c>
       <c r="E95">
-        <v>14.86311815628203</v>
+        <v>14.863118156282029</v>
       </c>
       <c r="F95">
         <v>14.94663303541078</v>
       </c>
       <c r="G95">
-        <v>3.532827006354078</v>
+        <v>3.5328270063540779</v>
       </c>
       <c r="H95">
-        <v>4.111718812612973</v>
+        <v>4.1117188126129731</v>
       </c>
       <c r="J95">
-        <v>0.6473692309751087</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+        <v>0.64736923097510868</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>103</v>
       </c>
@@ -4391,13 +4453,13 @@
         <v>307</v>
       </c>
       <c r="C96">
-        <v>23.22779990288659</v>
+        <v>23.227799902886591</v>
       </c>
       <c r="D96">
-        <v>0.004856473744216707</v>
+        <v>4.8564737442167074E-3</v>
       </c>
       <c r="E96">
-        <v>14.8870826053758</v>
+        <v>14.887082605375801</v>
       </c>
       <c r="F96">
         <v>14.97014521434555</v>
@@ -4406,13 +4468,13 @@
         <v>3.531176834287634</v>
       </c>
       <c r="H96">
-        <v>4.152315114747574</v>
+        <v>4.1523151147475739</v>
       </c>
       <c r="J96">
-        <v>0.5741627395058322</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+        <v>0.57416273950583219</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>104</v>
       </c>
@@ -4420,28 +4482,28 @@
         <v>308</v>
       </c>
       <c r="C97">
-        <v>23.22071132422474</v>
+        <v>23.220711324224741</v>
       </c>
       <c r="D97">
-        <v>0.004854991662560285</v>
+        <v>4.8549916625602848E-3</v>
       </c>
       <c r="E97">
-        <v>14.48062694530132</v>
+        <v>14.480626945301321</v>
       </c>
       <c r="F97">
-        <v>14.57426874752312</v>
+        <v>14.574268747523121</v>
       </c>
       <c r="G97">
-        <v>3.756768143143027</v>
+        <v>3.7567681431430269</v>
       </c>
       <c r="H97">
-        <v>4.083861983292799</v>
+        <v>4.0838619832927989</v>
       </c>
       <c r="J97">
-        <v>0.805812450265794</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+        <v>0.80581245026579396</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>105</v>
       </c>
@@ -4452,25 +4514,25 @@
         <v>23.21802000682014</v>
       </c>
       <c r="D98">
-        <v>0.004854428961298544</v>
+        <v>4.8544289612985443E-3</v>
       </c>
       <c r="E98">
         <v>14.77884712255133</v>
       </c>
       <c r="F98">
-        <v>14.79635061140286</v>
+        <v>14.796350611402859</v>
       </c>
       <c r="G98">
-        <v>3.558772041556914</v>
+        <v>3.5587720415569142</v>
       </c>
       <c r="H98">
-        <v>4.027948169735727</v>
+        <v>4.0279481697357271</v>
       </c>
       <c r="J98">
-        <v>0.8349491841246314</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+        <v>0.83494918412463137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>106</v>
       </c>
@@ -4481,10 +4543,10 @@
         <v>23.18751637360409</v>
       </c>
       <c r="D99">
-        <v>0.004848051254652357</v>
+        <v>4.8480512546523573E-3</v>
       </c>
       <c r="E99">
-        <v>14.89047334334684</v>
+        <v>14.890473343346841</v>
       </c>
       <c r="F99">
         <v>14.98774227681335</v>
@@ -4493,13 +4555,13 @@
         <v>1.926867616724965</v>
       </c>
       <c r="H99">
-        <v>4.403187119917688</v>
+        <v>4.4031871199176882</v>
       </c>
       <c r="J99">
-        <v>1.869719360148088</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+        <v>1.8697193601480879</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>107</v>
       </c>
@@ -4507,28 +4569,28 @@
         <v>311</v>
       </c>
       <c r="C100">
-        <v>23.14805845483743</v>
+        <v>23.148058454837429</v>
       </c>
       <c r="D100">
-        <v>0.004839801383924485</v>
+        <v>4.8398013839244854E-3</v>
       </c>
       <c r="E100">
         <v>14.8507110506918</v>
       </c>
       <c r="F100">
-        <v>14.92759053662438</v>
+        <v>14.927590536624381</v>
       </c>
       <c r="G100">
-        <v>1.926127519922065</v>
+        <v>1.9261275199220651</v>
       </c>
       <c r="H100">
-        <v>4.168224326637947</v>
+        <v>4.1682243266379473</v>
       </c>
       <c r="J100">
         <v>2.126116071653041</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>108</v>
       </c>
@@ -4539,7 +4601,7 @@
         <v>23.14697589692835</v>
       </c>
       <c r="D101">
-        <v>0.004839575042467952</v>
+        <v>4.8395750424679524E-3</v>
       </c>
       <c r="E101">
         <v>14.55498043681281</v>
@@ -4548,16 +4610,16 @@
         <v>14.74348428936343</v>
       </c>
       <c r="G101">
-        <v>3.629829611059583</v>
+        <v>3.6298296110595829</v>
       </c>
       <c r="H101">
-        <v>3.836373840381641</v>
+        <v>3.8363738403816412</v>
       </c>
       <c r="J101">
-        <v>0.9372881561236953</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+        <v>0.93728815612369532</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>109</v>
       </c>
@@ -4565,28 +4627,28 @@
         <v>313</v>
       </c>
       <c r="C102">
-        <v>23.10906312464976</v>
+        <v>23.109063124649762</v>
       </c>
       <c r="D102">
-        <v>0.004831648231323064</v>
+        <v>4.831648231323064E-3</v>
       </c>
       <c r="E102">
-        <v>14.88766958160772</v>
+        <v>14.887669581607719</v>
       </c>
       <c r="F102">
         <v>14.98156312178496</v>
       </c>
       <c r="G102">
-        <v>2.186078544313519</v>
+        <v>2.1860785443135189</v>
       </c>
       <c r="H102">
-        <v>4.165365484592853</v>
+        <v>4.1653654845928534</v>
       </c>
       <c r="J102">
         <v>1.776055973958425</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>110</v>
       </c>
@@ -4594,10 +4656,10 @@
         <v>314</v>
       </c>
       <c r="C103">
-        <v>23.0819318189924</v>
+        <v>23.081931818992398</v>
       </c>
       <c r="D103">
-        <v>0.004825975611698211</v>
+        <v>4.8259756116982109E-3</v>
       </c>
       <c r="E103">
         <v>14.65369684460809</v>
@@ -4606,16 +4668,16 @@
         <v>14.74760469870913</v>
       </c>
       <c r="G103">
-        <v>3.790532483024925</v>
+        <v>3.7905324830249252</v>
       </c>
       <c r="H103">
         <v>3.742660037470837</v>
       </c>
       <c r="J103">
-        <v>0.8011345997875083</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
+        <v>0.80113459978750834</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>111</v>
       </c>
@@ -4623,10 +4685,10 @@
         <v>315</v>
       </c>
       <c r="C104">
-        <v>23.08086412933305</v>
+        <v>23.080864129333051</v>
       </c>
       <c r="D104">
-        <v>0.00482575237889875</v>
+        <v>4.82575237889875E-3</v>
       </c>
       <c r="E104">
         <v>14.88605517641532</v>
@@ -4638,13 +4700,13 @@
         <v>3.174777890202316</v>
       </c>
       <c r="H104">
-        <v>4.180862542965722</v>
+        <v>4.1808625429657216</v>
       </c>
       <c r="J104">
-        <v>0.735839412083873</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
+        <v>0.73583941208387305</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>112</v>
       </c>
@@ -4652,13 +4714,13 @@
         <v>316</v>
       </c>
       <c r="C105">
-        <v>23.07145006670187</v>
+        <v>23.071450066701871</v>
       </c>
       <c r="D105">
-        <v>0.004823784084519349</v>
+        <v>4.8237840845193492E-3</v>
       </c>
       <c r="E105">
-        <v>14.88579762248873</v>
+        <v>14.885797622488729</v>
       </c>
       <c r="F105">
         <v>14.97936520670009</v>
@@ -4667,13 +4729,13 @@
         <v>2.115467873012856</v>
       </c>
       <c r="H105">
-        <v>4.26553520944114</v>
+        <v>4.2655352094411398</v>
       </c>
       <c r="J105">
-        <v>1.711081777547785</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
+        <v>1.7110817775477849</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>113</v>
       </c>
@@ -4684,7 +4746,7 @@
         <v>23.07119373585131</v>
       </c>
       <c r="D106">
-        <v>0.004823730490806177</v>
+        <v>4.823730490806177E-3</v>
       </c>
       <c r="E106">
         <v>14.87185547324048</v>
@@ -4693,16 +4755,16 @@
         <v>14.97704948036921</v>
       </c>
       <c r="G106">
-        <v>3.362622395958108</v>
+        <v>3.3626223959581081</v>
       </c>
       <c r="H106">
-        <v>4.059088079429716</v>
+        <v>4.0590880794297162</v>
       </c>
       <c r="J106">
-        <v>0.6724337800942721</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+        <v>0.67243378009427213</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>114</v>
       </c>
@@ -4710,28 +4772,28 @@
         <v>318</v>
       </c>
       <c r="C107">
-        <v>23.06029158828372</v>
+        <v>23.060291588283722</v>
       </c>
       <c r="D107">
-        <v>0.004821451067286132</v>
+        <v>4.8214510672861324E-3</v>
       </c>
       <c r="E107">
-        <v>14.8860452652931</v>
+        <v>14.886045265293101</v>
       </c>
       <c r="F107">
         <v>14.9913931036458</v>
       </c>
       <c r="G107">
-        <v>2.115396039697239</v>
+        <v>2.1153960396972389</v>
       </c>
       <c r="H107">
-        <v>4.119413639581949</v>
+        <v>4.1194136395819489</v>
       </c>
       <c r="J107">
-        <v>1.834088805358736</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
+        <v>1.8340888053587361</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>115</v>
       </c>
@@ -4742,10 +4804,10 @@
         <v>23.05426113500199</v>
       </c>
       <c r="D108">
-        <v>0.00482019021872747</v>
+        <v>4.8201902187274704E-3</v>
       </c>
       <c r="E108">
-        <v>14.89083638014091</v>
+        <v>14.890836380140909</v>
       </c>
       <c r="F108">
         <v>14.99395143977844</v>
@@ -4754,13 +4816,13 @@
         <v>3.244288111286362</v>
       </c>
       <c r="H108">
-        <v>4.077860420482653</v>
+        <v>4.0778604204826534</v>
       </c>
       <c r="J108">
-        <v>0.7381611634545406</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
+        <v>0.73816116345454064</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>116</v>
       </c>
@@ -4771,25 +4833,25 @@
         <v>23.01949022987904</v>
       </c>
       <c r="D109">
-        <v>0.004812920309889859</v>
+        <v>4.8129203098898586E-3</v>
       </c>
       <c r="E109">
-        <v>14.88280219144652</v>
+        <v>14.882802191446521</v>
       </c>
       <c r="F109">
         <v>14.96814464879121</v>
       </c>
       <c r="G109">
-        <v>2.090431452612486</v>
+        <v>2.0904314526124859</v>
       </c>
       <c r="H109">
-        <v>4.228180877390144</v>
+        <v>4.2281808773901437</v>
       </c>
       <c r="J109">
         <v>1.732733251085208</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>117</v>
       </c>
@@ -4797,28 +4859,28 @@
         <v>321</v>
       </c>
       <c r="C110">
-        <v>23.01765295072037</v>
+        <v>23.017652950720372</v>
       </c>
       <c r="D110">
-        <v>0.004812536171140937</v>
+        <v>4.8125361711409374E-3</v>
       </c>
       <c r="E110">
         <v>14.87693186890235</v>
       </c>
       <c r="F110">
-        <v>14.97955368806612</v>
+        <v>14.979553688066121</v>
       </c>
       <c r="G110">
-        <v>3.317603137021355</v>
+        <v>3.3176031370213548</v>
       </c>
       <c r="H110">
-        <v>4.020446759885771</v>
+        <v>4.0204467598857709</v>
       </c>
       <c r="J110">
-        <v>0.7000493657471231</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
+        <v>0.70004936574712306</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>118</v>
       </c>
@@ -4826,28 +4888,28 @@
         <v>322</v>
       </c>
       <c r="C111">
-        <v>23.01495124053953</v>
+        <v>23.014951240539531</v>
       </c>
       <c r="D111">
-        <v>0.004811971296955151</v>
+        <v>4.8119712969551514E-3</v>
       </c>
       <c r="E111">
-        <v>14.88092378576673</v>
+        <v>14.880923785766729</v>
       </c>
       <c r="F111">
         <v>14.98686176029195</v>
       </c>
       <c r="G111">
-        <v>3.320221293092079</v>
+        <v>3.3202212930920791</v>
       </c>
       <c r="H111">
-        <v>4.088290972850863</v>
+        <v>4.0882909728508627</v>
       </c>
       <c r="J111">
-        <v>0.6195772143046311</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
+        <v>0.61957721430463109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>119</v>
       </c>
@@ -4855,28 +4917,28 @@
         <v>323</v>
       </c>
       <c r="C112">
-        <v>23.0119292143337</v>
+        <v>23.011929214333701</v>
       </c>
       <c r="D112">
-        <v>0.004811339451021215</v>
+        <v>4.8113394510212147E-3</v>
       </c>
       <c r="E112">
         <v>14.88805145640128</v>
       </c>
       <c r="F112">
-        <v>14.9976437369531</v>
+        <v>14.997643736953099</v>
       </c>
       <c r="G112">
-        <v>2.204374945183871</v>
+        <v>2.2043749451838708</v>
       </c>
       <c r="H112">
-        <v>4.364219691063798</v>
+        <v>4.3642196910637976</v>
       </c>
       <c r="J112">
-        <v>1.445690841132936</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
+        <v>1.4456908411329361</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>120</v>
       </c>
@@ -4884,28 +4946,28 @@
         <v>324</v>
       </c>
       <c r="C113">
-        <v>23.00233292094562</v>
+        <v>23.002332920945619</v>
       </c>
       <c r="D113">
-        <v>0.004809333055793261</v>
+        <v>4.8093330557932613E-3</v>
       </c>
       <c r="E113">
-        <v>14.88580419582395</v>
+        <v>14.885804195823949</v>
       </c>
       <c r="F113">
-        <v>14.98851910908392</v>
+        <v>14.988519109083921</v>
       </c>
       <c r="G113">
-        <v>2.399087771069998</v>
+        <v>2.3990877710699978</v>
       </c>
       <c r="H113">
-        <v>3.4683289134103</v>
+        <v>3.4683289134102999</v>
       </c>
       <c r="J113">
-        <v>2.146397127381406</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
+        <v>2.1463971273814062</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>121</v>
       </c>
@@ -4916,7 +4978,7 @@
         <v>22.99946020064252</v>
       </c>
       <c r="D114">
-        <v>0.004808732426771794</v>
+        <v>4.8087324267717937E-3</v>
       </c>
       <c r="E114">
         <v>14.86197787408854</v>
@@ -4925,16 +4987,16 @@
         <v>14.94078932621545</v>
       </c>
       <c r="G114">
-        <v>3.482985064397756</v>
+        <v>3.4829850643977558</v>
       </c>
       <c r="H114">
-        <v>3.809787249440024</v>
+        <v>3.8097872494400238</v>
       </c>
       <c r="J114">
-        <v>0.7658985605892885</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
+        <v>0.76589856058928851</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>122</v>
       </c>
@@ -4942,13 +5004,13 @@
         <v>326</v>
       </c>
       <c r="C115">
-        <v>22.98868581915847</v>
+        <v>22.988685819158469</v>
       </c>
       <c r="D115">
-        <v>0.00480647971661387</v>
+        <v>4.8064797166138696E-3</v>
       </c>
       <c r="E115">
-        <v>14.87531574559523</v>
+        <v>14.875315745595231</v>
       </c>
       <c r="F115">
         <v>14.97166998164426</v>
@@ -4957,13 +5019,13 @@
         <v>3.435580210730814</v>
       </c>
       <c r="H115">
-        <v>4.05893542795816</v>
+        <v>4.0589354279581604</v>
       </c>
       <c r="J115">
-        <v>0.522500198825238</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
+        <v>0.52250019882523802</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>123</v>
       </c>
@@ -4971,10 +5033,10 @@
         <v>327</v>
       </c>
       <c r="C116">
-        <v>22.93409775518137</v>
+        <v>22.934097755181369</v>
       </c>
       <c r="D116">
-        <v>0.004795066431646684</v>
+        <v>4.7950664316466843E-3</v>
       </c>
       <c r="E116">
         <v>14.8920199188582</v>
@@ -4983,16 +5045,16 @@
         <v>14.96576817512662</v>
       </c>
       <c r="G116">
-        <v>3.07233432867494</v>
+        <v>3.0723343286749398</v>
       </c>
       <c r="H116">
-        <v>4.513349605642251</v>
+        <v>4.5133496056422509</v>
       </c>
       <c r="J116">
-        <v>0.3826456457375517</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
+        <v>0.38264564573755172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>124</v>
       </c>
@@ -5000,28 +5062,28 @@
         <v>328</v>
       </c>
       <c r="C117">
-        <v>22.92718799783472</v>
+        <v>22.927187997834722</v>
       </c>
       <c r="D117">
-        <v>0.004793621737991961</v>
+        <v>4.7936217379919606E-3</v>
       </c>
       <c r="E117">
-        <v>14.87663029942962</v>
+        <v>14.876630299429619</v>
       </c>
       <c r="F117">
-        <v>14.97334445408888</v>
+        <v>14.973344454088879</v>
       </c>
       <c r="G117">
-        <v>2.62428221192321</v>
+        <v>2.6242822119232101</v>
       </c>
       <c r="H117">
-        <v>4.685186486639049</v>
+        <v>4.6851864866390489</v>
       </c>
       <c r="J117">
-        <v>0.6443748451835836</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
+        <v>0.64437484518358357</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>125</v>
       </c>
@@ -5032,25 +5094,25 @@
         <v>22.91315292617395</v>
       </c>
       <c r="D118">
-        <v>0.004790687281982191</v>
+        <v>4.7906872819821911E-3</v>
       </c>
       <c r="E118">
         <v>14.81059053165025</v>
       </c>
       <c r="F118">
-        <v>14.89281849503588</v>
+        <v>14.892818495035881</v>
       </c>
       <c r="G118">
-        <v>3.471830491001047</v>
+        <v>3.4718304910010471</v>
       </c>
       <c r="H118">
-        <v>4.226224270266078</v>
+        <v>4.2262242702660782</v>
       </c>
       <c r="J118">
-        <v>0.3222796698709409</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+        <v>0.32227966987094092</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>126</v>
       </c>
@@ -5058,28 +5120,28 @@
         <v>330</v>
       </c>
       <c r="C119">
-        <v>22.89210107634726</v>
+        <v>22.892101076347259</v>
       </c>
       <c r="D119">
-        <v>0.004786285756380199</v>
+        <v>4.7862857563801993E-3</v>
       </c>
       <c r="E119">
-        <v>14.88480339220236</v>
+        <v>14.884803392202359</v>
       </c>
       <c r="F119">
         <v>14.9842402736964</v>
       </c>
       <c r="G119">
-        <v>2.306466459702487</v>
+        <v>2.3064664597024871</v>
       </c>
       <c r="H119">
-        <v>3.862113859356398</v>
+        <v>3.8621138593563979</v>
       </c>
       <c r="J119">
-        <v>1.739280483591977</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
+        <v>1.7392804835919771</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>127</v>
       </c>
@@ -5090,25 +5152,25 @@
         <v>22.86624269404291</v>
       </c>
       <c r="D120">
-        <v>0.004780879279862663</v>
+        <v>4.7808792798626626E-3</v>
       </c>
       <c r="E120">
         <v>14.88987860752068</v>
       </c>
       <c r="F120">
-        <v>14.98682475751368</v>
+        <v>14.986824757513681</v>
       </c>
       <c r="G120">
-        <v>1.903909346557996</v>
+        <v>1.9039093465579959</v>
       </c>
       <c r="H120">
-        <v>4.233224071954122</v>
+        <v>4.2332240719541216</v>
       </c>
       <c r="J120">
         <v>1.742284518017114</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>128</v>
       </c>
@@ -5119,10 +5181,10 @@
         <v>22.85132620815736</v>
       </c>
       <c r="D121">
-        <v>0.004777760537564122</v>
+        <v>4.7777605375641224E-3</v>
       </c>
       <c r="E121">
-        <v>14.80219805791248</v>
+        <v>14.802198057912481</v>
       </c>
       <c r="F121">
         <v>14.60387472938195</v>
@@ -5131,13 +5193,13 @@
         <v>3.349224901823344</v>
       </c>
       <c r="H121">
-        <v>4.043074277557242</v>
+        <v>4.0430742775572419</v>
       </c>
       <c r="J121">
-        <v>0.8551522993948287</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
+        <v>0.85515229939482873</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>129</v>
       </c>
@@ -5145,13 +5207,13 @@
         <v>333</v>
       </c>
       <c r="C122">
-        <v>22.84115808205462</v>
+        <v>22.841158082054619</v>
       </c>
       <c r="D122">
-        <v>0.004775634583420712</v>
+        <v>4.7756345834207119E-3</v>
       </c>
       <c r="E122">
-        <v>14.89459405882774</v>
+        <v>14.894594058827741</v>
       </c>
       <c r="F122">
         <v>14.97343021498077</v>
@@ -5160,13 +5222,13 @@
         <v>3.224312170562722</v>
       </c>
       <c r="H122">
-        <v>4.57629779102311</v>
+        <v>4.5762977910231104</v>
       </c>
       <c r="J122">
-        <v>0.06711790548800803</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
+        <v>6.7117905488008028E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>130</v>
       </c>
@@ -5174,13 +5236,13 @@
         <v>334</v>
       </c>
       <c r="C123">
-        <v>22.82551338590518</v>
+        <v>22.825513385905179</v>
       </c>
       <c r="D123">
-        <v>0.00477236358675277</v>
+        <v>4.7723635867527696E-3</v>
       </c>
       <c r="E123">
-        <v>14.8872051413979</v>
+        <v>14.887205141397899</v>
       </c>
       <c r="F123">
         <v>14.99746632744546</v>
@@ -5189,13 +5251,13 @@
         <v>3.444754700189459</v>
       </c>
       <c r="H123">
-        <v>4.134329084253224</v>
+        <v>4.1343290842532241</v>
       </c>
       <c r="J123">
-        <v>0.2489632740170387</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
+        <v>0.24896327401703869</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>131</v>
       </c>
@@ -5203,28 +5265,28 @@
         <v>335</v>
       </c>
       <c r="C124">
-        <v>22.80406783987823</v>
+        <v>22.804067839878229</v>
       </c>
       <c r="D124">
-        <v>0.004767879747058707</v>
+        <v>4.7678797470587066E-3</v>
       </c>
       <c r="E124">
-        <v>14.87897328770227</v>
+        <v>14.878973287702269</v>
       </c>
       <c r="F124">
         <v>14.96506340605943</v>
       </c>
       <c r="G124">
-        <v>2.520637268459223</v>
+        <v>2.5206372684592231</v>
       </c>
       <c r="H124">
-        <v>4.300057719710593</v>
+        <v>4.3000577197105931</v>
       </c>
       <c r="J124">
         <v>1.018309445648977</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>132</v>
       </c>
@@ -5235,25 +5297,25 @@
         <v>22.76916440335356</v>
       </c>
       <c r="D125">
-        <v>0.004760582128525153</v>
+        <v>4.7605821285251534E-3</v>
       </c>
       <c r="E125">
         <v>14.85839502053719</v>
       </c>
       <c r="F125">
-        <v>14.92140142713895</v>
+        <v>14.921401427138949</v>
       </c>
       <c r="G125">
-        <v>3.068017291598993</v>
+        <v>3.0680172915989932</v>
       </c>
       <c r="H125">
         <v>3.986389321307549</v>
       </c>
       <c r="J125">
-        <v>0.7933563633080649</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+        <v>0.79335636330806492</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>133</v>
       </c>
@@ -5264,25 +5326,25 @@
         <v>22.68409488368313</v>
       </c>
       <c r="D126">
-        <v>0.00474279577379333</v>
+        <v>4.7427957737933299E-3</v>
       </c>
       <c r="E126">
-        <v>14.85449020894601</v>
+        <v>14.854490208946009</v>
       </c>
       <c r="F126">
         <v>14.96770185192711</v>
       </c>
       <c r="G126">
-        <v>3.11419550616529</v>
+        <v>3.1141955061652902</v>
       </c>
       <c r="H126">
-        <v>4.102829284950286</v>
+        <v>4.1028292849502863</v>
       </c>
       <c r="J126">
-        <v>0.4993682406404409</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
+        <v>0.49936824064044089</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>134</v>
       </c>
@@ -5290,10 +5352,10 @@
         <v>338</v>
       </c>
       <c r="C127">
-        <v>22.63578359326189</v>
+        <v>22.635783593261891</v>
       </c>
       <c r="D127">
-        <v>0.004732694838084356</v>
+        <v>4.7326948380843562E-3</v>
       </c>
       <c r="E127">
         <v>14.88974958617086</v>
@@ -5302,16 +5364,16 @@
         <v>14.99727233182065</v>
       </c>
       <c r="G127">
-        <v>2.554121075552556</v>
+        <v>2.5541210755525561</v>
       </c>
       <c r="H127">
-        <v>4.066080740239712</v>
+        <v>4.0660807402397117</v>
       </c>
       <c r="J127">
         <v>1.018309445648977</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>135</v>
       </c>
@@ -5319,10 +5381,10 @@
         <v>339</v>
       </c>
       <c r="C128">
-        <v>22.62458445479705</v>
+        <v>22.624584454797048</v>
       </c>
       <c r="D128">
-        <v>0.004730353319639227</v>
+        <v>4.7303533196392271E-3</v>
       </c>
       <c r="E128">
         <v>14.87605207522355</v>
@@ -5331,16 +5393,16 @@
         <v>14.96771585714813</v>
       </c>
       <c r="G128">
-        <v>2.825104537504129</v>
+        <v>2.8251045375041288</v>
       </c>
       <c r="H128">
-        <v>4.162661076825764</v>
+        <v>4.1626610768257644</v>
       </c>
       <c r="J128">
-        <v>0.6691029833190262</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
+        <v>0.66910298331902618</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>136</v>
       </c>
@@ -5351,7 +5413,7 @@
         <v>22.61921315971431</v>
       </c>
       <c r="D129">
-        <v>0.004729230288028363</v>
+        <v>4.7292302880283634E-3</v>
       </c>
       <c r="E129">
         <v>14.87977966444193</v>
@@ -5360,16 +5422,16 @@
         <v>14.98027410462312</v>
       </c>
       <c r="G129">
-        <v>3.210112528955545</v>
+        <v>3.2101125289555452</v>
       </c>
       <c r="H129">
-        <v>4.171171144038879</v>
+        <v>4.1711711440388788</v>
       </c>
       <c r="J129">
-        <v>0.257655382096765</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
+        <v>0.25765538209676497</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>137</v>
       </c>
@@ -5380,25 +5442,25 @@
         <v>22.61815467296724</v>
       </c>
       <c r="D130">
-        <v>0.00472900897937592</v>
+        <v>4.7290089793759196E-3</v>
       </c>
       <c r="E130">
         <v>14.38107168214829</v>
       </c>
       <c r="F130">
-        <v>14.84156004575945</v>
+        <v>14.841560045759451</v>
       </c>
       <c r="G130">
-        <v>2.724067493625135</v>
+        <v>2.7240674936251348</v>
       </c>
       <c r="H130">
-        <v>4.132977058008708</v>
+        <v>4.1329770580087084</v>
       </c>
       <c r="J130">
-        <v>0.9195500755739558</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
+        <v>0.91955007557395585</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>138</v>
       </c>
@@ -5406,10 +5468,10 @@
         <v>342</v>
       </c>
       <c r="C131">
-        <v>22.60095191975785</v>
+        <v>22.600951919757851</v>
       </c>
       <c r="D131">
-        <v>0.004725412223779654</v>
+        <v>4.7254122237796537E-3</v>
       </c>
       <c r="E131">
         <v>14.88886789502083</v>
@@ -5421,13 +5483,13 @@
         <v>2.958376552823069</v>
       </c>
       <c r="H131">
-        <v>3.960771810859035</v>
+        <v>3.9607718108590348</v>
       </c>
       <c r="J131">
-        <v>0.6867760664642147</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
+        <v>0.68677606646421474</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>139</v>
       </c>
@@ -5438,7 +5500,7 @@
         <v>22.59989935625434</v>
       </c>
       <c r="D132">
-        <v>0.004725192153560336</v>
+        <v>4.7251921535603359E-3</v>
       </c>
       <c r="E132">
         <v>14.8656213907443</v>
@@ -5447,16 +5509,16 @@
         <v>14.97508138504733</v>
       </c>
       <c r="G132">
-        <v>3.811889020667312</v>
+        <v>3.8118890206673122</v>
       </c>
       <c r="H132">
-        <v>3.055593218139997</v>
+        <v>3.0555932181399972</v>
       </c>
       <c r="J132">
-        <v>0.7573357323996998</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
+        <v>0.75733573239969976</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>140</v>
       </c>
@@ -5464,28 +5526,28 @@
         <v>344</v>
       </c>
       <c r="C133">
-        <v>22.59711443283554</v>
+        <v>22.597114432835539</v>
       </c>
       <c r="D133">
-        <v>0.004724609881131624</v>
+        <v>4.7246098811316237E-3</v>
       </c>
       <c r="E133">
-        <v>13.64594466423178</v>
+        <v>13.645944664231781</v>
       </c>
       <c r="F133">
-        <v>13.65821197646019</v>
+        <v>13.658211976460191</v>
       </c>
       <c r="G133">
-        <v>4.103324014085413</v>
+        <v>4.1033240140854126</v>
       </c>
       <c r="H133">
-        <v>3.987092744721233</v>
+        <v>3.9870927447212332</v>
       </c>
       <c r="J133">
-        <v>0.8484856975687016</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
+        <v>0.84848569756870162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>141</v>
       </c>
@@ -5496,10 +5558,10 @@
         <v>22.58871759143188</v>
       </c>
       <c r="D134">
-        <v>0.004722854267600351</v>
+        <v>4.722854267600351E-3</v>
       </c>
       <c r="E134">
-        <v>14.88835768711503</v>
+        <v>14.888357687115031</v>
       </c>
       <c r="F134">
         <v>15</v>
@@ -5508,13 +5570,13 @@
         <v>3.23348820539033</v>
       </c>
       <c r="H134">
-        <v>4.287146373478192</v>
+        <v>4.2871463734781923</v>
       </c>
       <c r="J134">
-        <v>0.06808301256335586</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
+        <v>6.808301256335586E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>142</v>
       </c>
@@ -5525,25 +5587,25 @@
         <v>22.5879781654445</v>
       </c>
       <c r="D135">
-        <v>0.004722699668244901</v>
+        <v>4.7226996682449007E-3</v>
       </c>
       <c r="E135">
-        <v>14.87739680450085</v>
+        <v>14.877396804500849</v>
       </c>
       <c r="F135">
-        <v>14.96998729796123</v>
+        <v>14.969987297961231</v>
       </c>
       <c r="G135">
-        <v>2.820356155520998</v>
+        <v>2.8203561555209982</v>
       </c>
       <c r="H135">
-        <v>4.057863145335441</v>
+        <v>4.0578631453354408</v>
       </c>
       <c r="J135">
-        <v>0.7397715666268271</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
+        <v>0.73977156662682708</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>143</v>
       </c>
@@ -5551,28 +5613,28 @@
         <v>347</v>
       </c>
       <c r="C136">
-        <v>22.57054766876191</v>
+        <v>22.570547668761911</v>
       </c>
       <c r="D136">
-        <v>0.004719055295990897</v>
+        <v>4.7190552959908974E-3</v>
       </c>
       <c r="E136">
-        <v>14.88858233417104</v>
+        <v>14.888582334171041</v>
       </c>
       <c r="F136">
-        <v>14.94507353696143</v>
+        <v>14.945073536961431</v>
       </c>
       <c r="G136">
-        <v>2.007559264504205</v>
+        <v>2.0075592645042049</v>
       </c>
       <c r="H136">
-        <v>4.361744384972472</v>
+        <v>4.3617443849724724</v>
       </c>
       <c r="J136">
         <v>1.256170482323804</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>144</v>
       </c>
@@ -5583,25 +5645,25 @@
         <v>22.55540102751522</v>
       </c>
       <c r="D137">
-        <v>0.004715888432756532</v>
+        <v>4.7158884327565317E-3</v>
       </c>
       <c r="E137">
-        <v>14.79890748586472</v>
+        <v>14.798907485864721</v>
       </c>
       <c r="F137">
-        <v>14.90851877188025</v>
+        <v>14.908518771880249</v>
       </c>
       <c r="G137">
-        <v>2.186624614819355</v>
+        <v>2.1866246148193551</v>
       </c>
       <c r="H137">
-        <v>3.807370892063577</v>
+        <v>3.8073708920635769</v>
       </c>
       <c r="J137">
         <v>1.652886748752038</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>145</v>
       </c>
@@ -5609,10 +5671,10 @@
         <v>349</v>
       </c>
       <c r="C138">
-        <v>22.55091424463452</v>
+        <v>22.550914244634519</v>
       </c>
       <c r="D138">
-        <v>0.004714950335160238</v>
+        <v>4.714950335160238E-3</v>
       </c>
       <c r="E138">
         <v>14.87457587949015</v>
@@ -5624,13 +5686,13 @@
         <v>1.959998097589094</v>
       </c>
       <c r="H138">
-        <v>4.257098339833727</v>
+        <v>4.2570983398337274</v>
       </c>
       <c r="J138">
         <v>1.388060214470531</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>146</v>
       </c>
@@ -5638,28 +5700,28 @@
         <v>350</v>
       </c>
       <c r="C139">
-        <v>22.54942083791764</v>
+        <v>22.549420837917641</v>
       </c>
       <c r="D139">
-        <v>0.004714638093340508</v>
+        <v>4.7146380933405082E-3</v>
       </c>
       <c r="E139">
-        <v>14.87639180128306</v>
+        <v>14.876391801283059</v>
       </c>
       <c r="F139">
         <v>14.91751099444245</v>
       </c>
       <c r="G139">
-        <v>3.224874921006738</v>
+        <v>3.2248749210067378</v>
       </c>
       <c r="H139">
-        <v>4.090195275900535</v>
+        <v>4.0901952759005349</v>
       </c>
       <c r="J139">
-        <v>0.3168396465679141</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10">
+        <v>0.31683964656791408</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>147</v>
       </c>
@@ -5667,10 +5729,10 @@
         <v>351</v>
       </c>
       <c r="C140">
-        <v>22.50589688315066</v>
+        <v>22.505896883150658</v>
       </c>
       <c r="D140">
-        <v>0.004705538094870829</v>
+        <v>4.7055380948708286E-3</v>
       </c>
       <c r="E140">
         <v>14.88378075022429</v>
@@ -5679,16 +5741,16 @@
         <v>14.98030756423862</v>
       </c>
       <c r="G140">
-        <v>2.231216706262528</v>
+        <v>2.2312167062625279</v>
       </c>
       <c r="H140">
         <v>3.880852237394365</v>
       </c>
       <c r="J140">
-        <v>1.413520375255151</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10">
+        <v>1.4135203752551511</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>148</v>
       </c>
@@ -5699,10 +5761,10 @@
         <v>22.474542567653</v>
       </c>
       <c r="D141">
-        <v>0.004698982527377612</v>
+        <v>4.6989825273776121E-3</v>
       </c>
       <c r="E141">
-        <v>14.56112908277792</v>
+        <v>14.561129082777921</v>
       </c>
       <c r="F141">
         <v>14.75085988043112</v>
@@ -5711,13 +5773,13 @@
         <v>2.932258742439251</v>
       </c>
       <c r="H141">
-        <v>4.053363535145485</v>
+        <v>4.0533635351454853</v>
       </c>
       <c r="J141">
-        <v>0.7380604096371347</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
+        <v>0.73806040963713471</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>149</v>
       </c>
@@ -5725,28 +5787,28 @@
         <v>353</v>
       </c>
       <c r="C142">
-        <v>22.45964253552559</v>
+        <v>22.459642535525589</v>
       </c>
       <c r="D142">
-        <v>0.004695867225234607</v>
+        <v>4.6958672252346073E-3</v>
       </c>
       <c r="E142">
-        <v>14.29583052457038</v>
+        <v>14.295830524570381</v>
       </c>
       <c r="F142">
-        <v>14.53287870683019</v>
+        <v>14.532878706830189</v>
       </c>
       <c r="G142">
-        <v>2.795472453327396</v>
+        <v>2.7954724533273958</v>
       </c>
       <c r="H142">
-        <v>4.222870652345217</v>
+        <v>4.2228706523452173</v>
       </c>
       <c r="J142">
-        <v>0.9084207230227835</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10">
+        <v>0.90842072302278354</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>150</v>
       </c>
@@ -5754,28 +5816,28 @@
         <v>354</v>
       </c>
       <c r="C143">
-        <v>22.4550094210911</v>
+        <v>22.455009421091098</v>
       </c>
       <c r="D143">
-        <v>0.004694898532603402</v>
+        <v>4.6948985326034018E-3</v>
       </c>
       <c r="E143">
         <v>14.88092657290569</v>
       </c>
       <c r="F143">
-        <v>14.9501102218532</v>
+        <v>14.950110221853199</v>
       </c>
       <c r="G143">
         <v>3.234174543249948</v>
       </c>
       <c r="H143">
-        <v>4.04560391119892</v>
+        <v>4.0456039111989197</v>
       </c>
       <c r="J143">
         <v>0.225120744789024</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>151</v>
       </c>
@@ -5783,28 +5845,28 @@
         <v>355</v>
       </c>
       <c r="C144">
-        <v>22.43422620925761</v>
+        <v>22.434226209257609</v>
       </c>
       <c r="D144">
-        <v>0.004690553173894794</v>
+        <v>4.6905531738947936E-3</v>
       </c>
       <c r="E144">
-        <v>14.88233080121532</v>
+        <v>14.882330801215319</v>
       </c>
       <c r="F144">
         <v>14.98517627358757</v>
       </c>
       <c r="G144">
-        <v>2.622891813001127</v>
+        <v>2.6228918130011269</v>
       </c>
       <c r="H144">
         <v>4.497271958119291</v>
       </c>
       <c r="J144">
-        <v>0.3288861645496228</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
+        <v>0.32888616454962277</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>152</v>
       </c>
@@ -5812,28 +5874,28 @@
         <v>356</v>
       </c>
       <c r="C145">
-        <v>22.43289603021329</v>
+        <v>22.432896030213289</v>
       </c>
       <c r="D145">
-        <v>0.004690275059754373</v>
+        <v>4.6902750597543732E-3</v>
       </c>
       <c r="E145">
-        <v>14.85813605640019</v>
+        <v>14.858136056400189</v>
       </c>
       <c r="F145">
-        <v>14.95740141180907</v>
+        <v>14.957401411809069</v>
       </c>
       <c r="G145">
-        <v>3.387300957945376</v>
+        <v>3.3873009579453761</v>
       </c>
       <c r="H145">
-        <v>3.67173703589532</v>
+        <v>3.6717370358953199</v>
       </c>
       <c r="J145">
-        <v>0.4164566245635307</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
+        <v>0.41645662456353072</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>153</v>
       </c>
@@ -5841,28 +5903,28 @@
         <v>357</v>
       </c>
       <c r="C146">
-        <v>22.42474007173155</v>
+        <v>22.424740071731549</v>
       </c>
       <c r="D146">
-        <v>0.004688569810079797</v>
+        <v>4.6885698100797967E-3</v>
       </c>
       <c r="E146">
         <v>14.81016757156427</v>
       </c>
       <c r="F146">
-        <v>14.61212456984492</v>
+        <v>14.612124569844919</v>
       </c>
       <c r="G146">
-        <v>1.946498351514444</v>
+        <v>1.9464983515144441</v>
       </c>
       <c r="H146">
-        <v>4.405829034879181</v>
+        <v>4.4058290348791811</v>
       </c>
       <c r="J146">
-        <v>1.460288115492996</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
+        <v>1.4602881154929961</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>154</v>
       </c>
@@ -5870,28 +5932,28 @@
         <v>358</v>
       </c>
       <c r="C147">
-        <v>22.42095274708771</v>
+        <v>22.420952747087711</v>
       </c>
       <c r="D147">
-        <v>0.004687777955372483</v>
+        <v>4.6877779553724831E-3</v>
       </c>
       <c r="E147">
         <v>14.85428990432527</v>
       </c>
       <c r="F147">
-        <v>14.97698663057231</v>
+        <v>14.976986630572309</v>
       </c>
       <c r="G147">
-        <v>2.587092483095043</v>
+        <v>2.5870924830950428</v>
       </c>
       <c r="H147">
-        <v>4.194127381320441</v>
+        <v>4.1941273813204409</v>
       </c>
       <c r="J147">
         <v>0.662746252099914</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>155</v>
       </c>
@@ -5899,28 +5961,28 @@
         <v>359</v>
       </c>
       <c r="C148">
-        <v>22.40706160272539</v>
+        <v>22.407061602725388</v>
       </c>
       <c r="D148">
-        <v>0.004684873591715367</v>
+        <v>4.6848735917153668E-3</v>
       </c>
       <c r="E148">
-        <v>14.58491324654809</v>
+        <v>14.584913246548091</v>
       </c>
       <c r="F148">
-        <v>14.7314718264764</v>
+        <v>14.731471826476399</v>
       </c>
       <c r="G148">
-        <v>3.198859459491712</v>
+        <v>3.1988594594917119</v>
       </c>
       <c r="H148">
-        <v>4.262930003123708</v>
+        <v>4.2629300031237083</v>
       </c>
       <c r="J148">
         <v>0.2138003136335653</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>156</v>
       </c>
@@ -5928,10 +5990,10 @@
         <v>360</v>
       </c>
       <c r="C149">
-        <v>22.4017212673715</v>
+        <v>22.401721267371499</v>
       </c>
       <c r="D149">
-        <v>0.004683757033171729</v>
+        <v>4.6837570331717286E-3</v>
       </c>
       <c r="E149">
         <v>14.89164690346853</v>
@@ -5943,13 +6005,13 @@
         <v>1.275048353528702</v>
       </c>
       <c r="H149">
-        <v>4.207237473668527</v>
+        <v>4.2072374736685267</v>
       </c>
       <c r="J149">
         <v>1.926912740670611</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>157</v>
       </c>
@@ -5957,28 +6019,28 @@
         <v>361</v>
       </c>
       <c r="C150">
-        <v>22.39757508639646</v>
+        <v>22.397575086396461</v>
       </c>
       <c r="D150">
-        <v>0.004682890148700181</v>
+        <v>4.682890148700181E-3</v>
       </c>
       <c r="E150">
         <v>14.86680491194617</v>
       </c>
       <c r="F150">
-        <v>14.93312385257406</v>
+        <v>14.933123852574059</v>
       </c>
       <c r="G150">
-        <v>2.968515352065778</v>
+        <v>2.9685153520657779</v>
       </c>
       <c r="H150">
-        <v>4.105084402667934</v>
+        <v>4.1050844026679343</v>
       </c>
       <c r="J150">
-        <v>0.3908514790886902</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
+        <v>0.39085147908869022</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>158</v>
       </c>
@@ -5986,28 +6048,28 @@
         <v>362</v>
       </c>
       <c r="C151">
-        <v>22.37547857952774</v>
+        <v>22.375478579527741</v>
       </c>
       <c r="D151">
-        <v>0.004678270205963654</v>
+        <v>4.6782702059636541E-3</v>
       </c>
       <c r="E151">
         <v>14.88800206092686</v>
       </c>
       <c r="F151">
-        <v>14.99177748313818</v>
+        <v>14.991777483138179</v>
       </c>
       <c r="G151">
         <v>2.688669683114485</v>
       </c>
       <c r="H151">
-        <v>4.132291582220319</v>
+        <v>4.1322915822203186</v>
       </c>
       <c r="J151">
-        <v>0.5627398310547564</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10">
+        <v>0.56273983105475645</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>159</v>
       </c>
@@ -6015,28 +6077,28 @@
         <v>363</v>
       </c>
       <c r="C152">
-        <v>22.36022897430272</v>
+        <v>22.360228974302721</v>
       </c>
       <c r="D152">
-        <v>0.004675081814997027</v>
+        <v>4.6750818149970267E-3</v>
       </c>
       <c r="E152">
-        <v>14.87506441014168</v>
+        <v>14.875064410141681</v>
       </c>
       <c r="F152">
         <v>14.99565072837933</v>
       </c>
       <c r="G152">
-        <v>2.646007932725212</v>
+        <v>2.6460079327252122</v>
       </c>
       <c r="H152">
-        <v>3.981971974794993</v>
+        <v>3.9819719747949929</v>
       </c>
       <c r="J152">
-        <v>0.7365983384031831</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10">
+        <v>0.73659833840318312</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>160</v>
       </c>
@@ -6044,19 +6106,19 @@
         <v>364</v>
       </c>
       <c r="C153">
-        <v>22.33811303700607</v>
+        <v>22.338113037006071</v>
       </c>
       <c r="D153">
-        <v>0.004670457809742162</v>
+        <v>4.6704578097421616E-3</v>
       </c>
       <c r="E153">
-        <v>14.89014873391539</v>
+        <v>14.890148733915391</v>
       </c>
       <c r="F153">
-        <v>14.98333582262974</v>
+        <v>14.983335822629741</v>
       </c>
       <c r="G153">
-        <v>2.055020534285327</v>
+        <v>2.0550205342853269</v>
       </c>
       <c r="H153">
         <v>3.800546805260554</v>
@@ -6065,7 +6127,7 @@
         <v>1.499209874830447</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>161</v>
       </c>
@@ -6073,10 +6135,10 @@
         <v>365</v>
       </c>
       <c r="C154">
-        <v>22.32057172250179</v>
+        <v>22.320571722501789</v>
       </c>
       <c r="D154">
-        <v>0.004666790267672518</v>
+        <v>4.6667902676725184E-3</v>
       </c>
       <c r="E154">
         <v>14.81395480231137</v>
@@ -6088,13 +6150,13 @@
         <v>1.610550300094425</v>
       </c>
       <c r="H154">
-        <v>4.031086701731581</v>
+        <v>4.0310867017315806</v>
       </c>
       <c r="J154">
         <v>1.748317902016258</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>162</v>
       </c>
@@ -6102,28 +6164,28 @@
         <v>366</v>
       </c>
       <c r="C155">
-        <v>22.27806516227003</v>
+        <v>22.278065162270028</v>
       </c>
       <c r="D155">
-        <v>0.004657902986286181</v>
+        <v>4.6579029862861814E-3</v>
       </c>
       <c r="E155">
-        <v>14.89448736328318</v>
+        <v>14.894487363283179</v>
       </c>
       <c r="F155">
-        <v>14.99843517143139</v>
+        <v>14.998435171431391</v>
       </c>
       <c r="G155">
-        <v>2.78850636668179</v>
+        <v>2.7885063666817902</v>
       </c>
       <c r="H155">
-        <v>4.021956505712928</v>
+        <v>4.0219565057129278</v>
       </c>
       <c r="J155">
-        <v>0.4691671184439206</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10">
+        <v>0.46916711844392062</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>163</v>
       </c>
@@ -6134,25 +6196,25 @@
         <v>22.14951573909174</v>
       </c>
       <c r="D156">
-        <v>0.00463102584333206</v>
+        <v>4.63102584333206E-3</v>
       </c>
       <c r="E156">
-        <v>14.88473296629435</v>
+        <v>14.884732966294351</v>
       </c>
       <c r="F156">
-        <v>14.9861668580959</v>
+        <v>14.986166858095901</v>
       </c>
       <c r="G156">
-        <v>1.748104217153086</v>
+        <v>1.7481042171530861</v>
       </c>
       <c r="H156">
-        <v>4.058067643202305</v>
+        <v>4.0580676432023051</v>
       </c>
       <c r="J156">
-        <v>1.357177020640448</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10">
+        <v>1.3571770206404481</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>164</v>
       </c>
@@ -6160,16 +6222,16 @@
         <v>368</v>
       </c>
       <c r="C157">
-        <v>22.13345753153527</v>
+        <v>22.133457531535271</v>
       </c>
       <c r="D157">
-        <v>0.004627668389604061</v>
+        <v>4.6276683896040614E-3</v>
       </c>
       <c r="E157">
-        <v>14.86873914214289</v>
+        <v>14.868739142142889</v>
       </c>
       <c r="F157">
-        <v>14.98616060628424</v>
+        <v>14.986160606284241</v>
       </c>
       <c r="G157">
         <v>2.594987851983793</v>
@@ -6178,10 +6240,10 @@
         <v>4.050794232141949</v>
       </c>
       <c r="J157">
-        <v>0.5015148411252859</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
+        <v>0.50151484112528588</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>165</v>
       </c>
@@ -6189,28 +6251,28 @@
         <v>369</v>
       </c>
       <c r="C158">
-        <v>22.09848572781622</v>
+        <v>22.098485727816222</v>
       </c>
       <c r="D158">
-        <v>0.004620356476841786</v>
+        <v>4.6203564768417856E-3</v>
       </c>
       <c r="E158">
-        <v>14.89255768637553</v>
+        <v>14.892557686375531</v>
       </c>
       <c r="F158">
-        <v>14.99195049687578</v>
+        <v>14.991950496875781</v>
       </c>
       <c r="G158">
-        <v>1.392767241881738</v>
+        <v>1.3927672418817381</v>
       </c>
       <c r="H158">
-        <v>3.856155572941183</v>
+        <v>3.8561555729411832</v>
       </c>
       <c r="J158">
         <v>1.857612416117516</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>166</v>
       </c>
@@ -6221,25 +6283,25 @@
         <v>22.09441741309098</v>
       </c>
       <c r="D159">
-        <v>0.004619505872663648</v>
+        <v>4.6195058726636483E-3</v>
       </c>
       <c r="E159">
-        <v>14.89211568925021</v>
+        <v>14.892115689250209</v>
       </c>
       <c r="F159">
-        <v>14.96091697956813</v>
+        <v>14.960916979568131</v>
       </c>
       <c r="G159">
-        <v>1.201729284546169</v>
+        <v>1.2017292845461689</v>
       </c>
       <c r="H159">
-        <v>4.723441564221829</v>
+        <v>4.7234415642218286</v>
       </c>
       <c r="J159">
         <v>1.208329584754853</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>167</v>
       </c>
@@ -6247,28 +6309,28 @@
         <v>371</v>
       </c>
       <c r="C160">
-        <v>22.0690258909932</v>
+        <v>22.069025890993199</v>
       </c>
       <c r="D160">
-        <v>0.004614197007385443</v>
+        <v>4.6141970073854434E-3</v>
       </c>
       <c r="E160">
-        <v>14.85702222083757</v>
+        <v>14.857022220837569</v>
       </c>
       <c r="F160">
         <v>14.96467816031458</v>
       </c>
       <c r="G160">
-        <v>2.559821765763557</v>
+        <v>2.5598217657635569</v>
       </c>
       <c r="H160">
-        <v>4.19023863948541</v>
+        <v>4.1902386394854103</v>
       </c>
       <c r="J160">
-        <v>0.354287325429656</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10">
+        <v>0.35428732542965602</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>168</v>
       </c>
@@ -6276,10 +6338,10 @@
         <v>372</v>
       </c>
       <c r="C161">
-        <v>22.05937126935629</v>
+        <v>22.059371269356291</v>
       </c>
       <c r="D161">
-        <v>0.004612178416873812</v>
+        <v>4.6121784168738121E-3</v>
       </c>
       <c r="E161">
         <v>14.34104541370651</v>
@@ -6288,16 +6350,16 @@
         <v>14.77622195186172</v>
       </c>
       <c r="G161">
-        <v>3.000407104647777</v>
+        <v>3.0004071046477772</v>
       </c>
       <c r="H161">
-        <v>4.092848491560329</v>
+        <v>4.0928484915603294</v>
       </c>
       <c r="J161">
         <v>0.1898937212864647</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>169</v>
       </c>
@@ -6308,25 +6370,25 @@
         <v>22.04411404945893</v>
       </c>
       <c r="D162">
-        <v>0.004608988433829743</v>
+        <v>4.6089884338297426E-3</v>
       </c>
       <c r="E162">
-        <v>14.89236769481474</v>
+        <v>14.892367694814739</v>
       </c>
       <c r="F162">
-        <v>14.99085224332294</v>
+        <v>14.990852243322941</v>
       </c>
       <c r="G162">
         <v>1.542421587437055</v>
       </c>
       <c r="H162">
-        <v>4.077873283624601</v>
+        <v>4.0778732836246014</v>
       </c>
       <c r="J162">
-        <v>1.432966935074334</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10">
+        <v>1.4329669350743339</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>170</v>
       </c>
@@ -6334,28 +6396,28 @@
         <v>374</v>
       </c>
       <c r="C163">
-        <v>21.99193510684928</v>
+        <v>21.991935106849279</v>
       </c>
       <c r="D163">
-        <v>0.004598078848511966</v>
+        <v>4.5980788485119658E-3</v>
       </c>
       <c r="E163">
-        <v>14.88386526104532</v>
+        <v>14.883865261045321</v>
       </c>
       <c r="F163">
-        <v>14.97624952840749</v>
+        <v>14.976249528407489</v>
       </c>
       <c r="G163">
         <v>1.521924882172478</v>
       </c>
       <c r="H163">
-        <v>4.252328395500634</v>
+        <v>4.2523283955006344</v>
       </c>
       <c r="J163">
-        <v>1.241432300768674</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10">
+        <v>1.2414323007686741</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>171</v>
       </c>
@@ -6363,28 +6425,28 @@
         <v>375</v>
       </c>
       <c r="C164">
-        <v>21.98267422461564</v>
+        <v>21.982674224615639</v>
       </c>
       <c r="D164">
-        <v>0.0045961425811253</v>
+        <v>4.5961425811252999E-3</v>
       </c>
       <c r="E164">
         <v>14.79140441132787</v>
       </c>
       <c r="F164">
-        <v>14.96122498444197</v>
+        <v>14.961224984441969</v>
       </c>
       <c r="G164">
-        <v>1.576708038061326</v>
+        <v>1.5767080380613261</v>
       </c>
       <c r="H164">
-        <v>4.188971544080387</v>
+        <v>4.1889715440803874</v>
       </c>
       <c r="J164">
         <v>1.255769658031948</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>172</v>
       </c>
@@ -6395,25 +6457,25 @@
         <v>21.97557873615122</v>
       </c>
       <c r="D165">
-        <v>0.00459465905476577</v>
+        <v>4.5946590547657701E-3</v>
       </c>
       <c r="E165">
         <v>14.89725242787091</v>
       </c>
       <c r="F165">
-        <v>14.98691819543152</v>
+        <v>14.986918195431519</v>
       </c>
       <c r="G165">
         <v>1.701407363954377</v>
       </c>
       <c r="H165">
-        <v>3.811121795217218</v>
+        <v>3.8111217952172178</v>
       </c>
       <c r="J165">
         <v>1.476131381548103</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>173</v>
       </c>
@@ -6424,25 +6486,25 @@
         <v>21.96480257768804</v>
       </c>
       <c r="D166">
-        <v>0.004592405973076641</v>
+        <v>4.5924059730766409E-3</v>
       </c>
       <c r="E166">
-        <v>14.89078437929587</v>
+        <v>14.890784379295869</v>
       </c>
       <c r="F166">
         <v>14.99279151889438</v>
       </c>
       <c r="G166">
-        <v>1.477144907411648</v>
+        <v>1.4771449074116481</v>
       </c>
       <c r="H166">
-        <v>3.953495774533404</v>
+        <v>3.9534957745334038</v>
       </c>
       <c r="J166">
-        <v>1.541370376848611</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10">
+        <v>1.5413703768486109</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>174</v>
       </c>
@@ -6450,28 +6512,28 @@
         <v>378</v>
       </c>
       <c r="C167">
-        <v>21.95715672343582</v>
+        <v>21.957156723435819</v>
       </c>
       <c r="D167">
-        <v>0.004590807376111655</v>
+        <v>4.5908073761116554E-3</v>
       </c>
       <c r="E167">
-        <v>14.89001845279001</v>
+        <v>14.890018452790009</v>
       </c>
       <c r="F167">
-        <v>14.97785332055022</v>
+        <v>14.977853320550221</v>
       </c>
       <c r="G167">
-        <v>1.454631155841782</v>
+        <v>1.4546311558417819</v>
       </c>
       <c r="H167">
-        <v>4.143353269965604</v>
+        <v>4.1433532699656039</v>
       </c>
       <c r="J167">
-        <v>1.381318977078206</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10">
+        <v>1.3813189770782059</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>175</v>
       </c>
@@ -6479,28 +6541,28 @@
         <v>379</v>
       </c>
       <c r="C168">
-        <v>21.92981827720845</v>
+        <v>21.929818277208451</v>
       </c>
       <c r="D168">
-        <v>0.0045850914474888</v>
+        <v>4.5850914474887998E-3</v>
       </c>
       <c r="E168">
-        <v>14.87541446286973</v>
+        <v>14.875414462869729</v>
       </c>
       <c r="F168">
-        <v>14.98409284100097</v>
+        <v>14.984092841000971</v>
       </c>
       <c r="G168">
-        <v>3.00673095133078</v>
+        <v>3.0067309513307801</v>
       </c>
       <c r="H168">
-        <v>3.938994484876699</v>
+        <v>3.9389944848766989</v>
       </c>
       <c r="J168">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>176</v>
       </c>
@@ -6508,10 +6570,10 @@
         <v>380</v>
       </c>
       <c r="C169">
-        <v>21.92498942951917</v>
+        <v>21.924989429519169</v>
       </c>
       <c r="D169">
-        <v>0.004584081830903679</v>
+        <v>4.5840818309036786E-3</v>
       </c>
       <c r="E169">
         <v>14.88966342032821</v>
@@ -6523,13 +6585,13 @@
         <v>1.118025987374869</v>
       </c>
       <c r="H169">
-        <v>4.399774713121436</v>
+        <v>4.3997747131214364</v>
       </c>
       <c r="J169">
-        <v>1.412738111550285</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10">
+        <v>1.4127381115502851</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>177</v>
       </c>
@@ -6537,28 +6599,28 @@
         <v>381</v>
       </c>
       <c r="C170">
-        <v>21.9141502792562</v>
+        <v>21.914150279256202</v>
       </c>
       <c r="D170">
-        <v>0.004581815578874566</v>
+        <v>4.5818155788745658E-3</v>
       </c>
       <c r="E170">
         <v>14.88943289227795</v>
       </c>
       <c r="F170">
-        <v>14.99105047446957</v>
+        <v>14.991050474469571</v>
       </c>
       <c r="G170">
         <v>1.620895862353092</v>
       </c>
       <c r="H170">
-        <v>3.652246180646506</v>
+        <v>3.6522461806465061</v>
       </c>
       <c r="J170">
-        <v>1.649957761787033</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10">
+        <v>1.6499577617870329</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>178</v>
       </c>
@@ -6566,28 +6628,28 @@
         <v>382</v>
       </c>
       <c r="C171">
-        <v>21.89673446561319</v>
+        <v>21.896734465613189</v>
       </c>
       <c r="D171">
-        <v>0.004578174276553853</v>
+        <v>4.5781742765538527E-3</v>
       </c>
       <c r="E171">
-        <v>14.5055286975241</v>
+        <v>14.505528697524101</v>
       </c>
       <c r="F171">
-        <v>13.78473084472762</v>
+        <v>13.784730844727619</v>
       </c>
       <c r="G171">
         <v>3.179436186878148</v>
       </c>
       <c r="H171">
-        <v>3.94834980597039</v>
+        <v>3.9483498059703899</v>
       </c>
       <c r="J171">
-        <v>0.9842176280370333</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10">
+        <v>0.98421762803703328</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>179</v>
       </c>
@@ -6595,28 +6657,28 @@
         <v>383</v>
       </c>
       <c r="C172">
-        <v>21.81819319604084</v>
+        <v>21.818193196040841</v>
       </c>
       <c r="D172">
-        <v>0.004561752849853508</v>
+        <v>4.5617528498535084E-3</v>
       </c>
       <c r="E172">
-        <v>14.64681353346976</v>
+        <v>14.646813533469761</v>
       </c>
       <c r="F172">
         <v>14.8464985557852</v>
       </c>
       <c r="G172">
-        <v>2.875352286877276</v>
+        <v>2.8753522868772761</v>
       </c>
       <c r="H172">
         <v>3.93427629271878</v>
       </c>
       <c r="J172">
-        <v>0.1620660606595881</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10">
+        <v>0.16206606065958809</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>180</v>
       </c>
@@ -6624,28 +6686,28 @@
         <v>384</v>
       </c>
       <c r="C173">
-        <v>21.80716656242773</v>
+        <v>21.807166562427732</v>
       </c>
       <c r="D173">
-        <v>0.004559447398762442</v>
+        <v>4.5594473987624418E-3</v>
       </c>
       <c r="E173">
-        <v>14.56422928677243</v>
+        <v>14.564229286772431</v>
       </c>
       <c r="F173">
         <v>14.89995611674216</v>
       </c>
       <c r="G173">
-        <v>1.508030153179646</v>
+        <v>1.5080301531796461</v>
       </c>
       <c r="H173">
-        <v>4.211134375341532</v>
+        <v>4.2111343753415316</v>
       </c>
       <c r="J173">
         <v>1.188045917164394</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>181</v>
       </c>
@@ -6653,28 +6715,28 @@
         <v>385</v>
       </c>
       <c r="C174">
-        <v>21.78373713536863</v>
+        <v>21.783737135368629</v>
       </c>
       <c r="D174">
-        <v>0.004554548768766046</v>
+        <v>4.5545487687660459E-3</v>
       </c>
       <c r="E174">
-        <v>14.89201263288176</v>
+        <v>14.892012632881761</v>
       </c>
       <c r="F174">
-        <v>14.99870848118253</v>
+        <v>14.998708481182531</v>
       </c>
       <c r="G174">
-        <v>2.705914021502015</v>
+        <v>2.7059140215020152</v>
       </c>
       <c r="H174">
-        <v>4.07533154923332</v>
+        <v>4.0753315492333204</v>
       </c>
       <c r="J174">
-        <v>0.003783083450771168</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10">
+        <v>3.7830834507711678E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>182</v>
       </c>
@@ -6682,28 +6744,28 @@
         <v>386</v>
       </c>
       <c r="C175">
-        <v>21.74569704289311</v>
+        <v>21.745697042893109</v>
       </c>
       <c r="D175">
-        <v>0.004546595337485109</v>
+        <v>4.5465953374851089E-3</v>
       </c>
       <c r="E175">
-        <v>14.89239037545637</v>
+        <v>14.892390375456371</v>
       </c>
       <c r="F175">
-        <v>14.99097077900421</v>
+        <v>14.990970779004209</v>
       </c>
       <c r="G175">
         <v>2.470285936735181</v>
       </c>
       <c r="H175">
-        <v>4.269791292178464</v>
+        <v>4.2697912921784642</v>
       </c>
       <c r="J175">
-        <v>0.01464903497524783</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
+        <v>1.464903497524783E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>183</v>
       </c>
@@ -6711,28 +6773,28 @@
         <v>387</v>
       </c>
       <c r="C176">
-        <v>21.72716913530237</v>
+        <v>21.727169135302368</v>
       </c>
       <c r="D176">
-        <v>0.004542721518306113</v>
+        <v>4.5427215183061129E-3</v>
       </c>
       <c r="E176">
-        <v>14.86698948140998</v>
+        <v>14.866989481409981</v>
       </c>
       <c r="F176">
-        <v>14.98530436577622</v>
+        <v>14.985304365776219</v>
       </c>
       <c r="G176">
         <v>2.589120421034151</v>
       </c>
       <c r="H176">
-        <v>4.065910754998045</v>
+        <v>4.0659107549980451</v>
       </c>
       <c r="J176">
-        <v>0.08683359349395303</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10">
+        <v>8.6833593493953032E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>184</v>
       </c>
@@ -6743,7 +6805,7 @@
         <v>21.69905572542465</v>
       </c>
       <c r="D177">
-        <v>0.004536843560105062</v>
+        <v>4.5368435601050618E-3</v>
       </c>
       <c r="E177">
         <v>14.89359731313667</v>
@@ -6755,13 +6817,13 @@
         <v>1.625114456639664</v>
       </c>
       <c r="H177">
-        <v>3.769837331103824</v>
+        <v>3.7698373311038238</v>
       </c>
       <c r="J177">
-        <v>1.321057729335673</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10">
+        <v>1.3210577293356729</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>185</v>
       </c>
@@ -6769,16 +6831,16 @@
         <v>389</v>
       </c>
       <c r="C178">
-        <v>21.59336778384657</v>
+        <v>21.593367783846571</v>
       </c>
       <c r="D178">
-        <v>0.004514746300980212</v>
+        <v>4.5147463009802121E-3</v>
       </c>
       <c r="E178">
         <v>14.88086619807966</v>
       </c>
       <c r="F178">
-        <v>14.98723122451642</v>
+        <v>14.987231224516419</v>
       </c>
       <c r="G178">
         <v>1.838352337154209</v>
@@ -6787,10 +6849,10 @@
         <v>4.141075150205987</v>
       </c>
       <c r="J178">
-        <v>0.6267090719699571</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10">
+        <v>0.62670907196995707</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>186</v>
       </c>
@@ -6798,10 +6860,10 @@
         <v>390</v>
       </c>
       <c r="C179">
-        <v>21.56885911295405</v>
+        <v>21.568859112954051</v>
       </c>
       <c r="D179">
-        <v>0.004509622022434986</v>
+        <v>4.5096220224349857E-3</v>
       </c>
       <c r="E179">
         <v>14.88664215416664</v>
@@ -6810,16 +6872,16 @@
         <v>14.9501413433875</v>
       </c>
       <c r="G179">
-        <v>1.478714550692945</v>
+        <v>1.4787145506929451</v>
       </c>
       <c r="H179">
-        <v>3.900846892587052</v>
+        <v>3.9008468925870519</v>
       </c>
       <c r="J179">
         <v>1.239156326286561</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>187</v>
       </c>
@@ -6827,28 +6889,28 @@
         <v>391</v>
       </c>
       <c r="C180">
-        <v>21.5407306944697</v>
+        <v>21.540730694469701</v>
       </c>
       <c r="D180">
-        <v>0.004503740926231009</v>
+        <v>4.5037409262310094E-3</v>
       </c>
       <c r="E180">
-        <v>14.89595439832546</v>
+        <v>14.895954398325459</v>
       </c>
       <c r="F180">
-        <v>14.98006171246663</v>
+        <v>14.980061712466631</v>
       </c>
       <c r="G180">
         <v>1.35872744713546</v>
       </c>
       <c r="H180">
-        <v>3.829689645346395</v>
+        <v>3.8296896453463951</v>
       </c>
       <c r="J180">
         <v>1.372251889521215</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>188</v>
       </c>
@@ -6856,10 +6918,10 @@
         <v>392</v>
       </c>
       <c r="C181">
-        <v>21.43958894144748</v>
+        <v>21.439588941447479</v>
       </c>
       <c r="D181">
-        <v>0.004482594185254675</v>
+        <v>4.4825941852546748E-3</v>
       </c>
       <c r="E181">
         <v>14.8932892043208</v>
@@ -6871,13 +6933,13 @@
         <v>1.502299443055972</v>
       </c>
       <c r="H181">
-        <v>3.639900678977703</v>
+        <v>3.6399006789777029</v>
       </c>
       <c r="J181">
-        <v>1.310977928542156</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10">
+        <v>1.3109779285421559</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>189</v>
       </c>
@@ -6885,28 +6947,28 @@
         <v>393</v>
       </c>
       <c r="C182">
-        <v>21.38211546097818</v>
+        <v>21.382115460978181</v>
       </c>
       <c r="D182">
-        <v>0.004470577616743886</v>
+        <v>4.4705776167438859E-3</v>
       </c>
       <c r="E182">
-        <v>14.88744422777573</v>
+        <v>14.887444227775729</v>
       </c>
       <c r="F182">
-        <v>14.97384760505521</v>
+        <v>14.973847605055211</v>
       </c>
       <c r="G182">
         <v>1.734784489535758</v>
       </c>
       <c r="H182">
-        <v>3.377282901261361</v>
+        <v>3.3772829012613612</v>
       </c>
       <c r="J182">
-        <v>1.296200465125852</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10">
+        <v>1.2962004651258521</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>190</v>
       </c>
@@ -6914,28 +6976,28 @@
         <v>394</v>
       </c>
       <c r="C183">
-        <v>21.30285733942761</v>
+        <v>21.302857339427611</v>
       </c>
       <c r="D183">
-        <v>0.004454006310467116</v>
+        <v>4.4540063104671164E-3</v>
       </c>
       <c r="E183">
-        <v>14.89705550632645</v>
+        <v>14.897055506326449</v>
       </c>
       <c r="F183">
         <v>14.99994901449535</v>
       </c>
       <c r="G183">
-        <v>1.340117688628527</v>
+        <v>1.3401176886285271</v>
       </c>
       <c r="H183">
-        <v>3.676820130856239</v>
+        <v>3.6768201308562389</v>
       </c>
       <c r="J183">
-        <v>1.285970505447498</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10">
+        <v>1.2859705054474979</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>191</v>
       </c>
@@ -6943,28 +7005,28 @@
         <v>395</v>
       </c>
       <c r="C184">
-        <v>21.28768577725205</v>
+        <v>21.287685777252051</v>
       </c>
       <c r="D184">
-        <v>0.004450834236759215</v>
+        <v>4.4508342367592154E-3</v>
       </c>
       <c r="E184">
-        <v>14.88764573312351</v>
+        <v>14.887645733123509</v>
       </c>
       <c r="F184">
         <v>14.99432128950561</v>
       </c>
       <c r="G184">
-        <v>2.154637372694861</v>
+        <v>2.1546373726948609</v>
       </c>
       <c r="H184">
-        <v>4.09296811998374</v>
+        <v>4.0929681199837402</v>
       </c>
       <c r="J184">
-        <v>0.04575899506784255</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10">
+        <v>4.5758995067842548E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>192</v>
       </c>
@@ -6972,28 +7034,28 @@
         <v>396</v>
       </c>
       <c r="C185">
-        <v>21.24775963717064</v>
+        <v>21.247759637170638</v>
       </c>
       <c r="D185">
-        <v>0.004442486470211199</v>
+        <v>4.4424864702111988E-3</v>
       </c>
       <c r="E185">
-        <v>14.89939513866111</v>
+        <v>14.899395138661109</v>
       </c>
       <c r="F185">
         <v>14.99300160667952</v>
       </c>
       <c r="G185">
-        <v>1.003365846170169</v>
+        <v>1.0033658461701691</v>
       </c>
       <c r="H185">
-        <v>4.066951815468935</v>
+        <v>4.0669518154689346</v>
       </c>
       <c r="J185">
         <v>1.18444036885201</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>193</v>
       </c>
@@ -7004,10 +7066,10 @@
         <v>21.19446751436735</v>
       </c>
       <c r="D186">
-        <v>0.004431344140922596</v>
+        <v>4.4313441409225959E-3</v>
       </c>
       <c r="E186">
-        <v>14.88767973138176</v>
+        <v>14.887679731381761</v>
       </c>
       <c r="F186">
         <v>14.99694677409027</v>
@@ -7016,13 +7078,13 @@
         <v>1.023471470893411</v>
       </c>
       <c r="H186">
-        <v>3.934605908431738</v>
+        <v>3.9346059084317382</v>
       </c>
       <c r="J186">
-        <v>1.239443360951925</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10">
+        <v>1.2394433609519251</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>194</v>
       </c>
@@ -7033,25 +7095,25 @@
         <v>20.98952209493789</v>
       </c>
       <c r="D187">
-        <v>0.004388494105507362</v>
+        <v>4.3884941055073621E-3</v>
       </c>
       <c r="E187">
-        <v>14.89457536539929</v>
+        <v>14.894575365399289</v>
       </c>
       <c r="F187">
         <v>14.97886972698041</v>
       </c>
       <c r="G187">
-        <v>0.6679486661390193</v>
+        <v>0.66794866613901926</v>
       </c>
       <c r="H187">
-        <v>4.207746133683356</v>
+        <v>4.2077461336833561</v>
       </c>
       <c r="J187">
         <v>1.134957568135107</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>195</v>
       </c>
@@ -7059,10 +7121,10 @@
         <v>399</v>
       </c>
       <c r="C188">
-        <v>20.90706744538127</v>
+        <v>20.907067445381269</v>
       </c>
       <c r="D188">
-        <v>0.004371254468420143</v>
+        <v>4.3712544684201427E-3</v>
       </c>
       <c r="E188">
         <v>14.89926825259934</v>
@@ -7071,16 +7133,16 @@
         <v>14.93193632545152</v>
       </c>
       <c r="G188">
-        <v>0.6589041452987319</v>
+        <v>0.65890414529873187</v>
       </c>
       <c r="H188">
-        <v>3.918715530935778</v>
+        <v>3.9187155309357782</v>
       </c>
       <c r="J188">
         <v>1.397511443695244</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>196</v>
       </c>
@@ -7088,28 +7150,28 @@
         <v>400</v>
       </c>
       <c r="C189">
-        <v>20.84383815363316</v>
+        <v>20.843838153633161</v>
       </c>
       <c r="D189">
-        <v>0.004358034473563809</v>
+        <v>4.358034473563809E-3</v>
       </c>
       <c r="E189">
         <v>14.86987731153946</v>
       </c>
       <c r="F189">
-        <v>14.98172197899581</v>
+        <v>14.981721978995809</v>
       </c>
       <c r="G189">
-        <v>0.8577302545480615</v>
+        <v>0.85773025454806151</v>
       </c>
       <c r="H189">
-        <v>3.926396727977503</v>
+        <v>3.9263967279775032</v>
       </c>
       <c r="J189">
         <v>1.077989192111781</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>197</v>
       </c>
@@ -7120,22 +7182,22 @@
         <v>20.60968582188335</v>
       </c>
       <c r="D190">
-        <v>0.004309077850205401</v>
+        <v>4.3090778502054006E-3</v>
       </c>
       <c r="E190">
-        <v>14.8926223156267</v>
+        <v>14.892622315626699</v>
       </c>
       <c r="F190">
         <v>14.98699563783549</v>
       </c>
       <c r="H190">
-        <v>4.324746393721152</v>
+        <v>4.3247463937211519</v>
       </c>
       <c r="J190">
         <v>1.297943790326705</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>198</v>
       </c>
@@ -7143,10 +7205,10 @@
         <v>402</v>
       </c>
       <c r="C191">
-        <v>20.47194378862251</v>
+        <v>20.471943788622511</v>
       </c>
       <c r="D191">
-        <v>0.004280278714221664</v>
+        <v>4.2802787142216638E-3</v>
       </c>
       <c r="E191">
         <v>15</v>
@@ -7155,13 +7217,13 @@
         <v>14.9444294661587</v>
       </c>
       <c r="H191">
-        <v>4.393146939465598</v>
+        <v>4.3931469394655984</v>
       </c>
       <c r="J191">
-        <v>1.134367382998216</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10">
+        <v>1.1343673829982159</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>199</v>
       </c>
@@ -7172,25 +7234,25 @@
         <v>20.43555088698227</v>
       </c>
       <c r="D192">
-        <v>0.00427266967797929</v>
+        <v>4.2726696779792897E-3</v>
       </c>
       <c r="E192">
-        <v>10.05888210032911</v>
+        <v>10.058882100329109</v>
       </c>
       <c r="F192">
-        <v>11.77646115977925</v>
+        <v>11.776461159779251</v>
       </c>
       <c r="G192">
-        <v>3.442445955950722</v>
+        <v>3.4424459559507219</v>
       </c>
       <c r="H192">
-        <v>4.244084048586735</v>
+        <v>4.2440840485867346</v>
       </c>
       <c r="J192">
-        <v>0.9725597226655677</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10">
+        <v>0.97255972266556767</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>200</v>
       </c>
@@ -7201,7 +7263,7 @@
         <v>20.41803245196111</v>
       </c>
       <c r="D193">
-        <v>0.004269006919557238</v>
+        <v>4.2690069195572382E-3</v>
       </c>
       <c r="E193">
         <v>14.91127259240567</v>
@@ -7210,13 +7272,13 @@
         <v>14.99217759072704</v>
       </c>
       <c r="H193">
-        <v>4.179349002913621</v>
+        <v>4.1793490029136207</v>
       </c>
       <c r="J193">
-        <v>1.246505858320449</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10">
+        <v>1.2465058583204489</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>201</v>
       </c>
@@ -7224,25 +7286,25 @@
         <v>405</v>
       </c>
       <c r="C194">
-        <v>20.39383666757099</v>
+        <v>20.393836667570991</v>
       </c>
       <c r="D194">
-        <v>0.004263948059393871</v>
+        <v>4.2639480593938709E-3</v>
       </c>
       <c r="E194">
-        <v>14.89346437655503</v>
+        <v>14.893464376555031</v>
       </c>
       <c r="F194">
-        <v>14.99206144834053</v>
+        <v>14.992061448340531</v>
       </c>
       <c r="H194">
-        <v>4.247959919429491</v>
+        <v>4.2479599194294906</v>
       </c>
       <c r="J194">
         <v>1.153815299800961</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>202</v>
       </c>
@@ -7250,10 +7312,10 @@
         <v>406</v>
       </c>
       <c r="C195">
-        <v>20.31574060476265</v>
+        <v>20.315740604762649</v>
       </c>
       <c r="D195">
-        <v>0.004247619716626106</v>
+        <v>4.2476197166261059E-3</v>
       </c>
       <c r="E195">
         <v>14.89872745178174</v>
@@ -7265,13 +7327,13 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>4.214580421486931</v>
+        <v>4.2145804214869313</v>
       </c>
       <c r="J195">
-        <v>1.117538908234082</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10">
+        <v>1.1175389082340821</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>203</v>
       </c>
@@ -7282,25 +7344,25 @@
         <v>20.28027325949056</v>
       </c>
       <c r="D196">
-        <v>0.004240204195921988</v>
+        <v>4.2402041959219879E-3</v>
       </c>
       <c r="E196">
         <v>14.18230950484177</v>
       </c>
       <c r="F196">
-        <v>12.09393464186189</v>
+        <v>12.093934641861891</v>
       </c>
       <c r="G196">
         <v>3.275969827963618</v>
       </c>
       <c r="H196">
-        <v>4.163593353646664</v>
+        <v>4.1635933536466636</v>
       </c>
       <c r="J196">
-        <v>0.7467754360183885</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10">
+        <v>0.74677543601838847</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>204</v>
       </c>
@@ -7311,7 +7373,7 @@
         <v>20.24050899736562</v>
       </c>
       <c r="D197">
-        <v>0.00423189027485433</v>
+        <v>4.2318902748543297E-3</v>
       </c>
       <c r="E197">
         <v>14.89344490252417</v>
@@ -7320,16 +7382,16 @@
         <v>14.99401551792122</v>
       </c>
       <c r="G197">
-        <v>2.459083334387043</v>
+        <v>2.4590833343870431</v>
       </c>
       <c r="H197">
-        <v>0.3080247084858685</v>
+        <v>0.30802470848586849</v>
       </c>
       <c r="J197">
         <v>2.479385436571488</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>205</v>
       </c>
@@ -7337,25 +7399,25 @@
         <v>409</v>
       </c>
       <c r="C198">
-        <v>20.09229410497622</v>
+        <v>20.092294104976219</v>
       </c>
       <c r="D198">
-        <v>0.00420090147107608</v>
+        <v>4.20090147107608E-3</v>
       </c>
       <c r="E198">
-        <v>14.86011718179608</v>
+        <v>14.860117181796079</v>
       </c>
       <c r="F198">
         <v>14.99867058026399</v>
       </c>
       <c r="H198">
-        <v>4.043626646201179</v>
+        <v>4.0436266462011794</v>
       </c>
       <c r="J198">
-        <v>1.049996878511044</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10">
+        <v>1.0499968785110441</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>206</v>
       </c>
@@ -7363,25 +7425,25 @@
         <v>410</v>
       </c>
       <c r="C199">
-        <v>19.96400155499403</v>
+        <v>19.964001554994031</v>
       </c>
       <c r="D199">
-        <v>0.004174078035228862</v>
+        <v>4.1740780352288618E-3</v>
       </c>
       <c r="E199">
-        <v>14.94467091280421</v>
+        <v>14.944670912804209</v>
       </c>
       <c r="F199">
-        <v>14.6090428080852</v>
+        <v>14.609042808085199</v>
       </c>
       <c r="H199">
-        <v>4.052068346893734</v>
+        <v>4.0520683468937344</v>
       </c>
       <c r="J199">
-        <v>1.302890400015107</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10">
+        <v>1.3028904000151069</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>207</v>
       </c>
@@ -7389,28 +7451,28 @@
         <v>411</v>
       </c>
       <c r="C200">
-        <v>19.93571569297445</v>
+        <v>19.935715692974451</v>
       </c>
       <c r="D200">
-        <v>0.004168164020694341</v>
+        <v>4.1681640206943406E-3</v>
       </c>
       <c r="E200">
         <v>14.89784789627844</v>
       </c>
       <c r="F200">
-        <v>14.99398497267329</v>
+        <v>14.993984972673291</v>
       </c>
       <c r="G200">
-        <v>0.2204234558192708</v>
+        <v>0.22042345581927081</v>
       </c>
       <c r="H200">
-        <v>3.590679370382426</v>
+        <v>3.5906793703824258</v>
       </c>
       <c r="J200">
         <v>1.130627894099471</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>208</v>
       </c>
@@ -7418,28 +7480,28 @@
         <v>412</v>
       </c>
       <c r="C201">
-        <v>19.82650324238246</v>
+        <v>19.826503242382461</v>
       </c>
       <c r="D201">
-        <v>0.004145329856414509</v>
+        <v>4.1453298564145093E-3</v>
       </c>
       <c r="E201">
         <v>0</v>
       </c>
       <c r="F201">
-        <v>7.930790618580318</v>
+        <v>7.9307906185803176</v>
       </c>
       <c r="G201">
-        <v>6.736222054860871</v>
+        <v>6.7362220548608711</v>
       </c>
       <c r="H201">
-        <v>4.159149226224165</v>
+        <v>4.1591492262241649</v>
       </c>
       <c r="J201">
-        <v>1.000341342717112</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10">
+        <v>1.0003413427171119</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>209</v>
       </c>
@@ -7447,28 +7509,28 @@
         <v>413</v>
       </c>
       <c r="C202">
-        <v>19.67896414322007</v>
+        <v>19.678964143220071</v>
       </c>
       <c r="D202">
-        <v>0.00411448234763954</v>
+        <v>4.1144823476395396E-3</v>
       </c>
       <c r="E202">
-        <v>11.50728473354638</v>
+        <v>11.507284733546379</v>
       </c>
       <c r="F202">
-        <v>11.25167459199191</v>
+        <v>11.251674591991909</v>
       </c>
       <c r="G202">
-        <v>3.514725822113948</v>
+        <v>3.5147258221139479</v>
       </c>
       <c r="H202">
-        <v>4.028385532459935</v>
+        <v>4.0283855324599349</v>
       </c>
       <c r="J202">
-        <v>0.8841781966542761</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10">
+        <v>0.88417819665427611</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>210</v>
       </c>
@@ -7476,25 +7538,25 @@
         <v>414</v>
       </c>
       <c r="C203">
-        <v>19.04307253166318</v>
+        <v>19.043072531663181</v>
       </c>
       <c r="D203">
-        <v>0.003981529983291424</v>
+        <v>3.9815299832914241E-3</v>
       </c>
       <c r="E203">
-        <v>14.92740502764826</v>
+        <v>14.927405027648261</v>
       </c>
       <c r="F203">
         <v>14.99173231223085</v>
       </c>
       <c r="H203">
-        <v>2.960014597817392</v>
+        <v>2.9600145978173922</v>
       </c>
       <c r="J203">
         <v>1.091325621614943</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>211</v>
       </c>
@@ -7505,10 +7567,10 @@
         <v>16.01869396596727</v>
       </c>
       <c r="D204">
-        <v>0.003349192217412502</v>
+        <v>3.349192217412502E-3</v>
       </c>
       <c r="E204">
-        <v>14.94247423654718</v>
+        <v>14.942474236547181</v>
       </c>
       <c r="F204">
         <v>14.96156343026418</v>
@@ -7520,7 +7582,7 @@
         <v>1.05713053570309</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>212</v>
       </c>
@@ -7528,25 +7590,25 @@
         <v>416</v>
       </c>
       <c r="C205">
-        <v>8.395146159453986</v>
+        <v>8.3951461594539865</v>
       </c>
       <c r="D205">
-        <v>0.001755259089225376</v>
+        <v>1.7552590892253759E-3</v>
       </c>
       <c r="E205">
-        <v>13.32730367652582</v>
+        <v>13.327303676525821</v>
       </c>
       <c r="F205">
         <v>0</v>
       </c>
       <c r="G205">
-        <v>3.236908941722764</v>
+        <v>3.2369089417227639</v>
       </c>
       <c r="H205">
-        <v>4.209452151919656</v>
+        <v>4.2094521519196562</v>
       </c>
       <c r="J205">
-        <v>0.9487850658115655</v>
+        <v>0.94878506581156552</v>
       </c>
     </row>
   </sheetData>

--- a/2022-05-16评分.xlsx
+++ b/2022-05-16评分.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>stock_name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>603329.SH</t>
   </si>
   <si>
-    <t>605368.SH</t>
-  </si>
-  <si>
     <t>002129.SZ</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>601225.SH</t>
   </si>
   <si>
-    <t>300662.SZ</t>
-  </si>
-  <si>
     <t>300987.SZ</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
     <t>上海雅仕</t>
   </si>
   <si>
-    <t>蓝天燃气</t>
-  </si>
-  <si>
     <t>中环股份</t>
   </si>
   <si>
@@ -119,9 +110,6 @@
   </si>
   <si>
     <t>陕西煤业</t>
-  </si>
-  <si>
-    <t>科锐国际</t>
   </si>
   <si>
     <t>川网传媒</t>
@@ -482,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +510,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>61.12730062857777</v>
       </c>
       <c r="D2">
-        <v>0.09582985906096553</v>
+        <v>0.1089720412186664</v>
+      </c>
+      <c r="E2">
+        <v>14.73561990426749</v>
       </c>
       <c r="F2">
         <v>14.67714125013125</v>
@@ -537,10 +528,10 @@
         <v>1.197858472561318</v>
       </c>
       <c r="H2">
-        <v>1.282643399104798</v>
+        <v>1.282643399104797</v>
       </c>
       <c r="I2">
-        <v>8.969657506780402</v>
+        <v>8.969657506780401</v>
       </c>
       <c r="J2">
         <v>35</v>
@@ -551,13 +542,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>60.59526602481479</v>
+        <v>60.5952660248148</v>
       </c>
       <c r="D3">
-        <v>0.09499578327862472</v>
+        <v>0.1080235796282668</v>
+      </c>
+      <c r="E3">
+        <v>14.59888855101985</v>
       </c>
       <c r="F3">
         <v>14.93653632327947</v>
@@ -566,13 +560,13 @@
         <v>15</v>
       </c>
       <c r="H3">
-        <v>3.59654453798597</v>
+        <v>3.596544537985971</v>
       </c>
       <c r="I3">
         <v>9.36294757265023</v>
       </c>
       <c r="J3">
-        <v>17.69923759089913</v>
+        <v>17.69923759089914</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -580,19 +574,22 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>56.71747083187222</v>
+        <v>56.71747083187223</v>
       </c>
       <c r="D4">
-        <v>0.08891652633474383</v>
+        <v>0.1011106086111019</v>
+      </c>
+      <c r="E4">
+        <v>14.39018317221017</v>
       </c>
       <c r="F4">
         <v>13.76080371780208</v>
       </c>
       <c r="G4">
-        <v>5.840604897507522</v>
+        <v>5.840604897507525</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -609,13 +606,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>51.35963863147424</v>
+        <v>51.35963863147425</v>
       </c>
       <c r="D5">
-        <v>0.08051700109223048</v>
+        <v>0.0915591658779754</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
       </c>
       <c r="F5">
         <v>14.68328127290153</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.1051196870964948</v>
+        <v>0.1051196870964947</v>
       </c>
       <c r="I5">
         <v>8.878683861474906</v>
@@ -638,19 +638,22 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>49.02557498428951</v>
       </c>
       <c r="D6">
-        <v>0.07685786698931761</v>
+        <v>0.08739821524949148</v>
+      </c>
+      <c r="E6">
+        <v>14.72388355526156</v>
       </c>
       <c r="F6">
         <v>13.19511048549123</v>
       </c>
       <c r="G6">
-        <v>1.620723859770632</v>
+        <v>1.620723859770633</v>
       </c>
       <c r="H6">
         <v>5.209522331215115</v>
@@ -667,13 +670,16 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>46.47696316220208</v>
       </c>
       <c r="D7">
-        <v>0.07286238364226519</v>
+        <v>0.08285478817728326</v>
+      </c>
+      <c r="E7">
+        <v>14.87867371660553</v>
       </c>
       <c r="F7">
         <v>14.99381384961421</v>
@@ -682,7 +688,7 @@
         <v>1.414047938682397</v>
       </c>
       <c r="I7">
-        <v>9.615422234223249</v>
+        <v>9.615422234223248</v>
       </c>
       <c r="J7">
         <v>20.45367913968222</v>
@@ -693,25 +699,28 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>45.29050437761089</v>
       </c>
       <c r="D8">
-        <v>0.07100236075658484</v>
+        <v>0.0807396802917851</v>
+      </c>
+      <c r="E8">
+        <v>14.9435500741286</v>
       </c>
       <c r="F8">
         <v>14.76293424420425</v>
       </c>
       <c r="G8">
-        <v>4.305097387588042</v>
+        <v>4.305097387588043</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.168505782535251</v>
+        <v>9.168505782535249</v>
       </c>
       <c r="J8">
         <v>17.05396696328335</v>
@@ -722,28 +731,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9">
-        <v>44.11144466659669</v>
+        <v>42.4666368738899</v>
       </c>
       <c r="D9">
-        <v>0.06915393746995062</v>
+        <v>0.07570555310397874</v>
+      </c>
+      <c r="E9">
+        <v>13.03105337730905</v>
       </c>
       <c r="F9">
-        <v>14.63393319957433</v>
+        <v>10.96436254803455</v>
       </c>
       <c r="G9">
-        <v>3.009081602200288</v>
+        <v>5.627401965361874</v>
       </c>
       <c r="H9">
-        <v>3.548853831626448</v>
+        <v>3.034988778338913</v>
       </c>
       <c r="I9">
-        <v>9.583725435735635</v>
+        <v>8.318087499233814</v>
       </c>
       <c r="J9">
-        <v>13.33585059745999</v>
+        <v>14.52179608292074</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -751,28 +763,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>42.4666368738899</v>
+        <v>40.73826565018641</v>
       </c>
       <c r="D10">
-        <v>0.06657535642127628</v>
+        <v>0.07262437434598006</v>
+      </c>
+      <c r="E10">
+        <v>14.96777005826188</v>
       </c>
       <c r="F10">
-        <v>10.96436254803455</v>
+        <v>14.9768615613076</v>
       </c>
       <c r="G10">
-        <v>5.627401965361874</v>
+        <v>2.894397767377461</v>
       </c>
       <c r="H10">
-        <v>3.034988778338913</v>
+        <v>0.5458222845490367</v>
       </c>
       <c r="I10">
-        <v>8.318087499233814</v>
+        <v>9.433547300888071</v>
       </c>
       <c r="J10">
-        <v>14.52179608292074</v>
+        <v>12.88763673606425</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -780,28 +795,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>40.73826565018641</v>
+        <v>39.26010448657095</v>
       </c>
       <c r="D11">
-        <v>0.06386577217545895</v>
+        <v>0.06998924670918025</v>
+      </c>
+      <c r="E11">
+        <v>14.91504981680232</v>
       </c>
       <c r="F11">
-        <v>14.9768615613076</v>
+        <v>14.89320501116149</v>
       </c>
       <c r="G11">
-        <v>2.89439776737746</v>
+        <v>3.403231124982902</v>
       </c>
       <c r="H11">
-        <v>0.5458222845490371</v>
+        <v>1.576066400528974</v>
       </c>
       <c r="I11">
-        <v>9.433547300888071</v>
+        <v>6.798721075944638</v>
       </c>
       <c r="J11">
-        <v>12.88763673606425</v>
+        <v>12.58888087395294</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -809,28 +827,31 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12">
-        <v>39.26010448657095</v>
+        <v>35.85895389225029</v>
       </c>
       <c r="D12">
-        <v>0.06154844465531587</v>
+        <v>0.06392599315562929</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>14.89320501116149</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>3.403231124982901</v>
+        <v>3.503706839790668</v>
       </c>
       <c r="H12">
-        <v>1.576066400528974</v>
+        <v>3.514616464265439</v>
       </c>
       <c r="I12">
-        <v>6.798721075944638</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <v>12.58888087395294</v>
+        <v>18.84063058819418</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -838,85 +859,30 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13">
-        <v>35.85895389225028</v>
+        <v>32.02812744503704</v>
       </c>
       <c r="D13">
-        <v>0.05621642804821429</v>
+        <v>0.05709675363066136</v>
+      </c>
+      <c r="E13">
+        <v>14.96618896155881</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G13">
-        <v>3.503706839790668</v>
+        <v>3.240687007624313</v>
       </c>
       <c r="H13">
-        <v>3.514616464265439</v>
+        <v>3.965861283508604</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>9.821579153904118</v>
       </c>
       <c r="J13">
-        <v>18.84063058819418</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14">
-        <v>32.81696685462727</v>
-      </c>
-      <c r="D14">
-        <v>0.05144747561480009</v>
-      </c>
-      <c r="F14">
-        <v>14.32722418148268</v>
-      </c>
-      <c r="G14">
-        <v>2.741268848833178</v>
-      </c>
-      <c r="H14">
-        <v>2.358684320976631</v>
-      </c>
-      <c r="I14">
-        <v>6.930904841553721</v>
-      </c>
-      <c r="J14">
-        <v>6.458884661781073</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15">
-        <v>32.02812744503704</v>
-      </c>
-      <c r="D15">
-        <v>0.05021080446025173</v>
-      </c>
-      <c r="F15">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>3.240687007624313</v>
-      </c>
-      <c r="H15">
-        <v>3.965861283508605</v>
-      </c>
-      <c r="I15">
-        <v>9.821579153904118</v>
-      </c>
-      <c r="J15">
         <v>0</v>
       </c>
     </row>
